--- a/Patients Information/metadata.xlsx
+++ b/Patients Information/metadata.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwapichr/Dropbox/Microbiome/DATA/14_16_joint/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwapichr/tempor/MicrobiomeSLE/Patients Information/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9447E47A-910E-D848-943F-3FA0B55C64D7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-4200" windowWidth="38400" windowHeight="21160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="Ethnicity" sheetId="6" r:id="rId2"/>
-    <sheet name="Age_histogram" sheetId="2" r:id="rId3"/>
-    <sheet name="Cohort" sheetId="5" r:id="rId4"/>
-    <sheet name="Gender" sheetId="3" r:id="rId5"/>
-    <sheet name="BMI Status" sheetId="4" r:id="rId6"/>
+    <sheet name="Ethnicity" sheetId="6" r:id="rId1"/>
+    <sheet name="Age_histogram" sheetId="2" r:id="rId2"/>
+    <sheet name="Cohort" sheetId="5" r:id="rId3"/>
+    <sheet name="Gender" sheetId="3" r:id="rId4"/>
+    <sheet name="BMI Status" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'BMI Status'!$B$1:$B$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$H$1:$H$98</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="5">'BMI Status'!#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">Ethnicity!$A:$A</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'BMI Status'!$B$1:$B$98</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="4">'BMI Status'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,430 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="362">
-  <si>
-    <t>#SampleID</t>
-  </si>
-  <si>
-    <t>s32109</t>
-  </si>
-  <si>
-    <t>s31761</t>
-  </si>
-  <si>
-    <t>s31904</t>
-  </si>
-  <si>
-    <t>sAI_9042</t>
-  </si>
-  <si>
-    <t>s31475</t>
-  </si>
-  <si>
-    <t>s29763</t>
-  </si>
-  <si>
-    <t>s28504</t>
-  </si>
-  <si>
-    <t>s30239</t>
-  </si>
-  <si>
-    <t>s31219</t>
-  </si>
-  <si>
-    <t>s22756</t>
-  </si>
-  <si>
-    <t>s29934</t>
-  </si>
-  <si>
-    <t>s22787</t>
-  </si>
-  <si>
-    <t>s29745</t>
-  </si>
-  <si>
-    <t>s33833</t>
-  </si>
-  <si>
-    <t>s29396</t>
-  </si>
-  <si>
-    <t>s31091</t>
-  </si>
-  <si>
-    <t>s28535</t>
-  </si>
-  <si>
-    <t>s10832</t>
-  </si>
-  <si>
-    <t>s29848</t>
-  </si>
-  <si>
-    <t>s26917</t>
-  </si>
-  <si>
-    <t>s22683</t>
-  </si>
-  <si>
-    <t>s28408</t>
-  </si>
-  <si>
-    <t>s31202</t>
-  </si>
-  <si>
-    <t>s27111</t>
-  </si>
-  <si>
-    <t>s29586</t>
-  </si>
-  <si>
-    <t>s12389</t>
-  </si>
-  <si>
-    <t>s32025</t>
-  </si>
-  <si>
-    <t>s31407</t>
-  </si>
-  <si>
-    <t>s29780_9504</t>
-  </si>
-  <si>
-    <t>s24010</t>
-  </si>
-  <si>
-    <t>s32573</t>
-  </si>
-  <si>
-    <t>s29777</t>
-  </si>
-  <si>
-    <t>s33276</t>
-  </si>
-  <si>
-    <t>s10852</t>
-  </si>
-  <si>
-    <t>s27796</t>
-  </si>
-  <si>
-    <t>s11367</t>
-  </si>
-  <si>
-    <t>s31686</t>
-  </si>
-  <si>
-    <t>s30731</t>
-  </si>
-  <si>
-    <t>s29527</t>
-  </si>
-  <si>
-    <t>s25149</t>
-  </si>
-  <si>
-    <t>s28791</t>
-  </si>
-  <si>
-    <t>s29523</t>
-  </si>
-  <si>
-    <t>s30879</t>
-  </si>
-  <si>
-    <t>s20844</t>
-  </si>
-  <si>
-    <t>s27555</t>
-  </si>
-  <si>
-    <t>s21911</t>
-  </si>
-  <si>
-    <t>s11287</t>
-  </si>
-  <si>
-    <t>sAI_5316</t>
-  </si>
-  <si>
-    <t>s32186</t>
-  </si>
-  <si>
-    <t>s1624</t>
-  </si>
-  <si>
-    <t>s31943</t>
-  </si>
-  <si>
-    <t>s29556</t>
-  </si>
-  <si>
-    <t>s27403</t>
-  </si>
-  <si>
-    <t>s31166</t>
-  </si>
-  <si>
-    <t>sAI_9328</t>
-  </si>
-  <si>
-    <t>s32994</t>
-  </si>
-  <si>
-    <t>s26891</t>
-  </si>
-  <si>
-    <t>s29404</t>
-  </si>
-  <si>
-    <t>s29753</t>
-  </si>
-  <si>
-    <t>s31369</t>
-  </si>
-  <si>
-    <t>s30012</t>
-  </si>
-  <si>
-    <t>s32679</t>
-  </si>
-  <si>
-    <t>s21944</t>
-  </si>
-  <si>
-    <t>s31716</t>
-  </si>
-  <si>
-    <t>s27321_9596</t>
-  </si>
-  <si>
-    <t>s31659</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>fecal</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Lupus (SLE)</t>
-  </si>
-  <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>p1034771-9</t>
-  </si>
-  <si>
-    <t>p1034755-1</t>
-  </si>
-  <si>
-    <t>p1034740-8</t>
-  </si>
-  <si>
-    <t>p-1034730-1</t>
-  </si>
-  <si>
-    <t>p1034749-6</t>
-  </si>
-  <si>
-    <t>p1034753-3</t>
-  </si>
-  <si>
-    <t>p-1034727-0</t>
-  </si>
-  <si>
-    <t>p1034741-2</t>
-  </si>
-  <si>
-    <t>p1034745-4</t>
-  </si>
-  <si>
-    <t>p1035465-8</t>
-  </si>
-  <si>
-    <t>p1034783-7</t>
-  </si>
-  <si>
-    <t>p1035463-6</t>
-  </si>
-  <si>
-    <t>p1034766-9</t>
-  </si>
-  <si>
-    <t>p1035474-9</t>
-  </si>
-  <si>
-    <t>p1034752-2</t>
-  </si>
-  <si>
-    <t>p1034773-5</t>
-  </si>
-  <si>
-    <t>p1034815-7</t>
-  </si>
-  <si>
-    <t>p1034750-5</t>
-  </si>
-  <si>
-    <t>p1034769-5</t>
-  </si>
-  <si>
-    <t>p1034810-3</t>
-  </si>
-  <si>
-    <t>p1034790-2</t>
-  </si>
-  <si>
-    <t>p1034748-3</t>
-  </si>
-  <si>
-    <t>p1034797-3</t>
-  </si>
-  <si>
-    <t>p1034791-8</t>
-  </si>
-  <si>
-    <t>p-1034728-9</t>
-  </si>
-  <si>
-    <t>p1035461-5</t>
-  </si>
-  <si>
-    <t>p1034772-6</t>
-  </si>
-  <si>
-    <t>p1034754-6</t>
-  </si>
-  <si>
-    <t>p1034779-0</t>
-  </si>
-  <si>
-    <t>p1034744-9</t>
-  </si>
-  <si>
-    <t>p1034781-6</t>
-  </si>
-  <si>
-    <t>p1034795-6</t>
-  </si>
-  <si>
-    <t>p1034823-1</t>
-  </si>
-  <si>
-    <t>p1035471-2</t>
-  </si>
-  <si>
-    <t>p1034780-0</t>
-  </si>
-  <si>
-    <t>p1035466-2</t>
-  </si>
-  <si>
-    <t>p-1034729-1</t>
-  </si>
-  <si>
-    <t>p1034747-7</t>
-  </si>
-  <si>
-    <t>p1034746-5</t>
-  </si>
-  <si>
-    <t>p1034739-3</t>
-  </si>
-  <si>
-    <t>p1034742-0</t>
-  </si>
-  <si>
-    <t>p1034733-8</t>
-  </si>
-  <si>
-    <t>p1034735-5</t>
-  </si>
-  <si>
-    <t>p1034767-6</t>
-  </si>
-  <si>
-    <t>p1034756-7</t>
-  </si>
-  <si>
-    <t>p1034758-0</t>
-  </si>
-  <si>
-    <t>p1034763-0</t>
-  </si>
-  <si>
-    <t>p1034737-2</t>
-  </si>
-  <si>
-    <t>p1034770-3</t>
-  </si>
-  <si>
-    <t>p1034731-7</t>
-  </si>
-  <si>
-    <t>p1034764-8</t>
-  </si>
-  <si>
-    <t>p1034759-8</t>
-  </si>
-  <si>
-    <t>p1034798-7</t>
-  </si>
-  <si>
-    <t>p1034734-0</t>
-  </si>
-  <si>
-    <t>p1034736-4</t>
-  </si>
-  <si>
-    <t>p1035458-6</t>
-  </si>
-  <si>
-    <t>p-1034782-8</t>
-  </si>
-  <si>
-    <t>p1034793-9</t>
-  </si>
-  <si>
-    <t>p1034743-1</t>
-  </si>
-  <si>
-    <t>p1034732-9</t>
-  </si>
-  <si>
-    <t>p1035464-3</t>
-  </si>
-  <si>
-    <t>p1034751-4</t>
-  </si>
-  <si>
-    <t>p1034794-1</t>
-  </si>
-  <si>
-    <t>p1034738-6</t>
-  </si>
-  <si>
-    <t>p1034784-4</t>
-  </si>
-  <si>
-    <t>p1034760-7</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>Ethnicity</t>
   </si>
@@ -473,9 +48,6 @@
   </si>
   <si>
     <t>African American</t>
-  </si>
-  <si>
-    <t>BMI_index</t>
   </si>
   <si>
     <t>BMI_status</t>
@@ -493,989 +65,13 @@
     <t>Obese</t>
   </si>
   <si>
-    <t>Weight_pounds</t>
-  </si>
-  <si>
-    <t>Height_feet</t>
-  </si>
-  <si>
-    <t>5'10''</t>
-  </si>
-  <si>
-    <t>5'7''</t>
-  </si>
-  <si>
-    <t>5'6''</t>
-  </si>
-  <si>
-    <t>5'4''</t>
-  </si>
-  <si>
-    <t>5'5''</t>
-  </si>
-  <si>
-    <t>5'4"</t>
-  </si>
-  <si>
-    <t>5'8''</t>
-  </si>
-  <si>
-    <t>5'8"</t>
-  </si>
-  <si>
-    <t>5'0''</t>
-  </si>
-  <si>
-    <t>5'7"</t>
-  </si>
-  <si>
-    <t>5'9''</t>
-  </si>
-  <si>
-    <t>5'11''</t>
-  </si>
-  <si>
-    <t>5'5"</t>
-  </si>
-  <si>
-    <t>6'3''</t>
-  </si>
-  <si>
-    <t>5'3''</t>
-  </si>
-  <si>
-    <t>5'1''</t>
-  </si>
-  <si>
-    <t>5'6"</t>
-  </si>
-  <si>
-    <t>4'7''</t>
-  </si>
-  <si>
-    <t>4'11''</t>
-  </si>
-  <si>
-    <t>5'2''</t>
-  </si>
-  <si>
-    <t>Study_cohort</t>
-  </si>
-  <si>
-    <t>Tobacco Use</t>
-  </si>
-  <si>
-    <t>Caffeine Use</t>
-  </si>
-  <si>
-    <t>Alcohol Use</t>
-  </si>
-  <si>
-    <t>Recreational Drug Use</t>
-  </si>
-  <si>
-    <t>Yes
- 35 years
- 1 pack per day</t>
-  </si>
-  <si>
-    <t>Yes
- Heavy (6+/week)</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes
-20 years
-0.3 packs per day
-</t>
-  </si>
-  <si>
-    <t>Yes
-Moderate (3-5/week)</t>
-  </si>
-  <si>
-    <t>Mild, 1-2/week</t>
-  </si>
-  <si>
-    <t>Yes
- Mild (1-2/week)</t>
-  </si>
-  <si>
-    <t>Used to Smoke
-13 years
-0.2 packs per day</t>
-  </si>
-  <si>
-    <t>Yes
- Moderate (3-5/week)</t>
-  </si>
-  <si>
-    <t>Yes
- Light (1-2/week)</t>
-  </si>
-  <si>
-    <t>Used to Smoke
-9 years
-1.0 packs per day</t>
-  </si>
-  <si>
-    <t>Yes
-Heavy (6+/week)</t>
-  </si>
-  <si>
-    <t>Yes
-Mild (1-2/week)</t>
-  </si>
-  <si>
-    <t>Yes
-Light (1-2/week)</t>
-  </si>
-  <si>
-    <t>Used to Smoke
- 13 years
- 1 pack per day</t>
-  </si>
-  <si>
-    <t>Yes, Mild (1-2x/week)</t>
-  </si>
-  <si>
-    <t>Used to Smoke
-1 year
-0.1 packs per day</t>
-  </si>
-  <si>
-    <t>Yes
-Heavy (1-2/week)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes
-34 years
-1.0 packs per day
-</t>
-  </si>
-  <si>
-    <t>Used to Smoke
-16 years
-0.1 packs per day</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Used to Smoke
-12 years
-1.0 pack per day</t>
-  </si>
-  <si>
-    <t>Used to Smoke
-8 years
-0.5 pack per day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes
-Heavy (6+/week) </t>
-  </si>
-  <si>
-    <t>Yes, 0.1pk/day</t>
-  </si>
-  <si>
-    <t>Used to Smoke
- 4 years
- 0.5 packs per day</t>
-  </si>
-  <si>
-    <t>Used to Smoke
- 10 years
- 0.1 packs per day</t>
-  </si>
-  <si>
-    <t>Used to smoke
- 10 years
- 1.0 packs per day</t>
-  </si>
-  <si>
-    <t>Yes
- Marijuana smoker
- More than once a week</t>
-  </si>
-  <si>
-    <t>Yes, .2pk/day</t>
-  </si>
-  <si>
-    <t>Yes, Heavy (6+.week)</t>
-  </si>
-  <si>
-    <t>Used to Smoke, 13 years, 0.5 pk/day</t>
-  </si>
-  <si>
-    <t>Yes
- 20 years
- 0.3 packs per day</t>
-  </si>
-  <si>
-    <t>Yes, Moderate (3-5/week)</t>
-  </si>
-  <si>
-    <t>Used to Smoke
-15 years
-0.8 packs per day</t>
-  </si>
-  <si>
-    <t>Used to Smoke 8 years, 0.5 pk/day</t>
-  </si>
-  <si>
-    <t>Used to Smoke
-20 years
-1.0 packs per day</t>
-  </si>
-  <si>
-    <t>Other Health Issues</t>
-  </si>
-  <si>
-    <t>Current Meds</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Raynaud's
-Hypertension (high blood pressure)
-Anxiety disorder
-Fibromyalgia
-Lupus (SLE)
-Hypothyroidism</t>
-  </si>
-  <si>
-    <t>Levothyroxine/100mcg/QD 
-Azathioprine/50mg/QD 
-Hydroxychloroquine/200mg/QD 
-Amlodipine/5mg/QD 
-Aspirin/324mg/QD 
-Gabapentin/300mg or 400mg/QD 
-Citalopram/20mg/QD 
-Furosemide/40mg/QD 
-Metaxalone/800mg/BID</t>
-  </si>
-  <si>
-    <t>Hyperopia
-Lupus (SLE)
-Nephritis</t>
-  </si>
-  <si>
-    <t>Raynaud's
- Lupus (SLE)</t>
-  </si>
-  <si>
-    <t>Plaquenil/300mg/QD 
- Adderall/PRN</t>
-  </si>
-  <si>
-    <t>Myopia
-Lupus (SLE)
-Nephritis
-Kidney biopsy in 2006</t>
-  </si>
-  <si>
-    <t>Hydroxychloroquine/200mg/QD</t>
-  </si>
-  <si>
-    <t>Allergy to cats
- Anemia
- Myopia
- Lupus (Discoid)
- Lupus (SLE)
- Nephritis</t>
-  </si>
-  <si>
-    <t>Hydroxyloroquine/100mg/QD (for 2 days) 
-Hydroxyloroquine/200mg/QD (for 1 day) 
-Mycophenolate/500mg/QD 
-Nisavitine/10mg/QD</t>
-  </si>
-  <si>
-    <t>Allergy to penicillin
-Fibromyalgia
-Lupus (SLE)
-Rheumatoid arthritis</t>
-  </si>
-  <si>
-    <t>Vitamin D/2000IU/QD 
-Methotrexate/20mg/QW 
-Folic acid/1mg/BID 
-Azathioprine/50mg/TID 
-Lyrica/50mg/QD 
-Trazodone/50mg/QD
-Iron/QD</t>
-  </si>
-  <si>
-    <t>Hypertension (high blood pressure)
-Depression
-Myopia
-Lupus (Discoid)
-Lupus (SLE)
-Sjogren's Syndrome</t>
-  </si>
-  <si>
-    <t>Iron/325mg/QD 
-Fluoxetine HCl/30mg/QD 
-Carvedilol/6.25mg/BID 
-Hydroxychloroquine/200mg/QD 
-Triamterene and Hydrochlorothiazide/37.5-25mg/QD 
-Losartan Potassium/100mg/QD 
-Clopidogrel/75mg/QD 
-Ibuprofen/800mg/BID 
-Pravastatin/20mg/QD</t>
-  </si>
-  <si>
-    <t>Allergic to Penicillin; Anemia; Blood Clots; Myopia; Migraine Headaches</t>
-  </si>
-  <si>
-    <t>Prednisone/12mg/QD
- Plaquenil/200mg/QD
- Imuran/75mg/QD
- Naproxen/1000mg/QD
- Baby Aspirin/81mg/QD
- Magnesium/500mg/QD
- Vitamin B2/400mg/QD
- Birth control pill/QD
- Orencia/QW</t>
-  </si>
-  <si>
-    <t>Arthritis
-Lupus (SLE)
-Peripheral Neuropathy
-Partial hysterectomy in 2014</t>
-  </si>
-  <si>
-    <t>Gabapentin/600mg/QD 
-IVIG/35mg/QM</t>
-  </si>
-  <si>
-    <t>Hypertension (high blood pressure)
-Bipolar disorder</t>
-  </si>
-  <si>
-    <t>Plaquenil/200mg/QD 
-Birth control/QD 
-Propranolol/60mg/QD 
-Fiorecet/50-325-40mg/PRN</t>
-  </si>
-  <si>
-    <t>Allergy to penicillin and sulfa drugs
-Raynaud's
-Hypertension (high blood pressure)
-Lupus (SLE)
-Osteoporosis
-Nephritis
-Brain lesion in 2001 - underwent a year of chemotheorapy and high dosage (90mg) of prednisone 
-Skin cancer - removed 8 years ago</t>
-  </si>
-  <si>
-    <t>Procardia/60mg/QD 
- Zoloft/100mg/QD 
- Meloxicam/15mg/QD 
- Lisinopril/20mg/QD 
- Atenolol/50mg/QD 
- Biotin/5000mcg/QD 
- VitaminD/2000mg/QD 
- Benlysta/924/QM 
- Methotrexate injections/0.4mL/QW 
- Leucovorin/10mg/QW</t>
-  </si>
-  <si>
-    <t>Myopia</t>
-  </si>
-  <si>
-    <t>Allergy to antibiotics (unspecificed)
-Allergy to vicodin
-Myopia
-Arthritis
-Lupus (Discoid) 
-Lupus (SLE)
-Asthma</t>
-  </si>
-  <si>
-    <t>Lupus (Discoid)
-Lupus (SLE)</t>
-  </si>
-  <si>
-    <t>Fibromyalgia
-Lupus (SLE)</t>
-  </si>
-  <si>
-    <t>Plaquenil/200mg/QD 
- Naproxen/375mg/PRN 
- Ibuprofen/800mg/PRN</t>
-  </si>
-  <si>
-    <t>Allergies to Azithromycin and Amoxicillin
-Anxiety
-Lupus (Discoid)
-Lupus (SLE)</t>
-  </si>
-  <si>
-    <t>Plaquenil/200mg/BID
- Meloxicam/0.5mg/QD
- Methotrexate/10mg/QW
- Zofran/4mg/PRN
- Tacrolimus ointment/BID
- Clobetasol cream/BID
- Desonide/BID
- Fluocinonide/ cream/BID
- Folic acid/1mg/QD
- Hydrocortisone cream/BID</t>
-  </si>
-  <si>
-    <t>Fibromyalgia
-Lupus (SLE)
-Rheumatoid arthritis</t>
-  </si>
-  <si>
-    <t>Plaquenil/200mg/BID 
-Vitamin D/2000IU/QD 
-Vitamin D/50000IU/QM 
-Vicodin/5-325mg/PRN</t>
-  </si>
-  <si>
-    <t>Allergy to Penicillin
-Lupus (SLE)</t>
-  </si>
-  <si>
-    <t>Plaquenil/200mg/QD</t>
-  </si>
-  <si>
-    <t>Allergic to: Penicillin; Raynaud's; Anemia</t>
-  </si>
-  <si>
-    <t>Prednisone/10mg/QD</t>
-  </si>
-  <si>
-    <t>Allergy to Plaquenil and Imuran
-High cholesterol (hypercholesterolemia)
-Nephritis</t>
-  </si>
-  <si>
-    <t>Prednisone/10mg/QD 
-Enalapril/20ml/BID 
-Lipitor/20mg/QD 
-Cellcept/1000mg/BID 
-Methotrexate/15mg/QW 
-Folic acid/1mg/QD 
-Tylenol with codeine #3/PRN 
-Flexeril/10mg/PRN</t>
-  </si>
-  <si>
-    <t>Depression
-Asthma
-Allergic
-Seasonal
-Penicillin</t>
-  </si>
-  <si>
-    <t>Hydroxychloroquine/200mg/BID
- Prednisone/10mg/BID</t>
-  </si>
-  <si>
-    <t>Thyroid was removed in 2005 
-Recurring shingles</t>
-  </si>
-  <si>
-    <t>Synthroid/150mcg/QD
-Valacyclovir/500mg/QD</t>
-  </si>
-  <si>
-    <t>Allergy to Penicillin, Adhesives, Vicodin, Dilaudid
-Raynaud's
-Ovarian cysts (benign)
-Lupus (SLE)
-Osteoporosis
-Nephritis 
-Pulmonary embolism in 2012</t>
-  </si>
-  <si>
-    <t>Prednisone/7.5mg/QD 
-Omeprazole/20mg/QD 
-Metoprolol tartrate/50mg/BID 
-Provera/10mg/QD - only one week out of the month 
-Imuran/50mg/QD 
-Losartan/100mg/QD 
-Plaquenil/400mg/QD - every other day 
-Plaquenil/200mg/QD - every other day 
-Norvasc/5mg/QD 
-Potassium chloride/10mg/BID 
-Acyclovivir/400mg/QD 
-Cholecalciferol/5000units/QD 
-Vitamin B12/500mcg/QD 
-Calcium carbonate and vitamin D/600mg-400unit/BID 
-Myfortic/360mg/BID 
-Warfarin/6mg/TID 
-Warfarin/8mg/QID</t>
-  </si>
-  <si>
-    <t>Allergy to Vinegar, Citric acid
-Environmental allergies
-Hashimoto's thyroiditis
-Anemia
-Anxiety disorder
-Depression
-Cataract
-Myopia
-Fibromyalgia
-Lupus (SLE)
-Hypothyroidism
-Bone degenerate disease 
-Pinched nerve in neck (C4)</t>
-  </si>
-  <si>
-    <t>Levothyroxine/112mg/QD 
-Losartan/100mg/QD 
-Hydroxychloroquine/400mg/QD 
-Tramadol/200mg/QD 
-Hydrocodone/10mg/PRN 
-Acetaminophen/325mg/PRN</t>
-  </si>
-  <si>
-    <t>Multivitamin/QD</t>
-  </si>
-  <si>
-    <t>Allergy to penicillin
-Lupus (SLE)</t>
-  </si>
-  <si>
-    <t>Plaquenil/400mg/QD</t>
-  </si>
-  <si>
-    <t>Myopia
-Lupus (SLE)
-Nephritis</t>
-  </si>
-  <si>
-    <t>Azathioprine/50mg/QD 
- Plaquenil/200mg/QD 
- Amitriptyline/25mg/QD 
- Prednisone/5mg/QD</t>
-  </si>
-  <si>
-    <t>Allergy to morphine and onions
-Myopia
-Fibromyalgia
-Lupus (SLE)</t>
-  </si>
-  <si>
-    <t>Hydroxychloroquine/400mg/QD</t>
-  </si>
-  <si>
-    <t>Allergy to sulfa drugs
-Raynaud's
-Lupus (SLE)
-Rheumatoid Arthritis
-Sjogren's Syndrome
-COPD
-Hypothyroidism</t>
-  </si>
-  <si>
-    <t>Prednisone/5mg/QD 
-Plaquenil/200mg/BID 
-Xeljanz/5mg/BID 
-Folic Acid/1mg/QD 
-Levothyroxine/50mcg/QD</t>
-  </si>
-  <si>
-    <t>Raynaud's
-Lupus (SLE) 
-Sjogren's Syndrome
-Nephritis
-Kidney biopsy in 8/2013</t>
-  </si>
-  <si>
-    <t>Medrol/8 to 16mg as needed/QD 
- Imuran/150mg/QD</t>
-  </si>
-  <si>
-    <t>Blood clots</t>
-  </si>
-  <si>
-    <t>Coumadin/12.5mg/QD
- Hydroxychloroquine/400mg/QD
- Vitamin D/QD
- Metformin/500mg/QD</t>
-  </si>
-  <si>
-    <t>Raynaud's, Hypertension; Depression; Sjogren's; Nephritis; Hypothyroidism</t>
-  </si>
-  <si>
-    <t>Prednisone/10mg/QD
- Keppra/500mg/BID
- Metoprolol/50mg/BID
- Nifedipine/60mg/QD
- Sensipar/30mg/QD
- Simvastatin/10mg/QD
- Synthroid/75mcg/QD
- Aspirin/81mg/QD
- Hydrochloroquine/200mg/BID</t>
-  </si>
-  <si>
-    <t>Lupus (SLE)
-Rheumatoid Arthritis
-Breast cancer diagnosed in 2012 - in remission</t>
-  </si>
-  <si>
-    <t>Plaquenil/200gm/QD 
- Prednisone/10mg/QD 
- Cannabidiol/QD</t>
-  </si>
-  <si>
-    <t>Hay fever</t>
-  </si>
-  <si>
-    <t>Allergy to Amoxicillin
- Lupus (SLE)</t>
-  </si>
-  <si>
-    <t>Plaquenil/300mg/QD 
- Vitamin D/700IU/QD</t>
-  </si>
-  <si>
-    <t>Plaquenil/200mg/BID
-Cozaar/100mg/QD
-Calcium/500mg/QD
-Heliocare/QD</t>
-  </si>
-  <si>
-    <t>Lupus (SLE)
-Asthma</t>
-  </si>
-  <si>
-    <t>Albuterol/PRN 
-Folic acid/1mg/QD 
-Klor-Con10/QD 
-Hydroxychloroquine/200mg/BID 
-Prednisone/5mg/QD 
-Methotrexate/10mg/QW</t>
-  </si>
-  <si>
-    <t>Anxiety disorder
-Lupus (SLE)
-Sjogren's Syndrome
-Nephritis</t>
-  </si>
-  <si>
-    <t>Hydoroxychloroquine/200mg/BID 
- Lisinopril/20mg/QD 
- Prednisone/5mg/QD 
- Cellcept/500mg/BID 
- Vitamin D/2000IU/BID</t>
-  </si>
-  <si>
-    <t>Anxiety disorder
-Depression
-Arthritis
-Lupus (SLE)
-Nephritis
-Legally blind 
-Skin cancer diagnosed and treated in 2014</t>
-  </si>
-  <si>
-    <t>Prednisone/3mg/QD 
-Folic acid/800mg/QD 
-Tacrolimus/1mg/BID 
-Metoprolol succinate ER/100mg/QD 
-Losartan/50mg/QD 
-Trazodone/50mg/QD 
-Citalopram/20mg/QD 
-Atorvastatin/20mg/QD 
-Pantoprazole/20mg/QD 
-Sirolimus/1mg/QAD 
-Sirolimus/2mg/QAD 
-Wens multivitamin/QD</t>
-  </si>
-  <si>
-    <t>Allergies: Pollen, Dust, Compazine, Cats
-Endometriosis
-Anemia
-Hypertension
-ADD
-Anxiety
-Depression
-Fibromyalgia
-Migrains
-Hypothyroidism</t>
-  </si>
-  <si>
-    <t>Adderall/5mg/PRN
- Dulcolax/5mg/TID
- Duloxetine/60mg/BID
- Plaquenil/200mg/BID
- Ibuprofen/800mg/TID
- Levothyroxine/150mcg/QD
- Cytomel/5mcg/QD
- Lisinopril/5mg/QD
- Remeron/45mg/QD
- Zofran/4mg/PRN
- Oxycontin/60mg/TID
- Oxycontin/40mg/PRN
- Vivelle-Dot/0.1mg/TIW
- Caffeine tablet/200mg/PRN</t>
-  </si>
-  <si>
-    <t>Prednisone/10mg/QD 
-Plaquenil/200mg/BID 
-Phospha 250 Neutral Tablets/3 tablets/BID 
-Calcium/600mg/BID 
-Vitamin D/2000IU/QD 
-Multivitamin/QD 
-Imitrex/25mg/PRN 
-Metronidazole/0.75%/PRN 
-Alclomadizone/0.05%/PRN 
-Desonide/0.05%/PRN 
-Clobetasol/0.05%/PRN 
-Clobetasol propionate/0.05%/PRN</t>
-  </si>
-  <si>
-    <t>Allergy to Cozaar and Erythromycin
-Hypertension (high blood pressure)
-Lupus (SLE)
-Nephritis
-Kidney biopsy in 7/2014</t>
-  </si>
-  <si>
-    <t>Imuran/150mg/QD 
- Prednisone/5mg/QD 
- Plaquenil/200mg/BID 
- Eplerenone/25mg/BID 
- Birth control/QD 
- Bumetanide/1mg/QD</t>
-  </si>
-  <si>
-    <t>Lupus (SLE)
-Nephritis</t>
-  </si>
-  <si>
-    <t>Hydroxychloroquine/200mg/QD 
- Prednisone/9mg/QD 
- Azathioprine/150mg/QD 
- Lisinopril/QD</t>
-  </si>
-  <si>
-    <t>Raynaud's
-Hypertension
-Nephritis</t>
-  </si>
-  <si>
-    <t>Plaquenil/400mg/BID
-Gabapentin/900mg/QD
-Vitamin D/50000IU/QW
-Lisinopril/10mg/QD
-Iron/QD
-Omeprazole/40mg/QD</t>
-  </si>
-  <si>
-    <t>Allergy to penicillin
-Anxiety disorder
-Arthritis
-Lupus (SLE)
-Sleep apnea
-Narcolepsy
-Diagnosed with skin cancer in 11/2015 - treated 
-Cataplexy 
-Seizures 
-Osteopenia 
-Gout 
-Thalassemia</t>
-  </si>
-  <si>
-    <t>Methylphenidate/18mg/QD 
-Plaquenil/100mg/QD 
-Zoloft/100mg/QD</t>
-  </si>
-  <si>
-    <t>Allergy to latex
-Astigmatism
-Hyperopia
-Arthritis
-Lupus (Discoid)
-Lupus (SLE)
-Scarring on lungs</t>
-  </si>
-  <si>
-    <t>Vitamin D/50000IU/QD  
-Multivitamin/QD</t>
-  </si>
-  <si>
-    <t>Allergy to penicillin, omeprazole, IV contrast dye
-Seasonal allergies
-Hypertension (high blood pressure)
-Lupus (SLE)
-Central Nervous System (CNS) Lymphoma
-Kidney Transplant 11/13; 
-MRSA 11/07; CNS Lymphoma 11/07 
-Patient had TTP when she was 5. 
-Hyperlipidemia 
-Hemiparesis 
-Retinopathy
-Hx of Lymphoma, Non-Hodgkin's 
-Atherosclerosis Aorta 
-Cerebral Venous Sinus Thrombosis</t>
-  </si>
-  <si>
-    <t>Tacrolimus/1mg/TID 
- Evorolimus/1mg/TID 
- Prednisone/5mg/QD 
- Metoprolol/100mg/BID 
- Keppra/250mg/QD 
- Amlodipine/10mg/QD 
- Cranberry soft gels/500mg/QD 
- Vitamin B complex/QD 
- Vitamin D3/QD 
- Omega 3 + CoQ-10/QD 
- Red yeast rice/QD</t>
-  </si>
-  <si>
-    <t>Asthma
-Sjogren's Syndrome</t>
-  </si>
-  <si>
-    <t>Prednisone/20mg/QD
- Hydroxychloroquine/200mg/QD
- Azathioprine/250mg/QD
- Vitamin D/QD
- Vitamin C/QD
- Aspirin/81mg/QD
- Zaldiar/PRN</t>
-  </si>
-  <si>
-    <t>LC01_F</t>
-  </si>
-  <si>
-    <t>LC02_F</t>
-  </si>
-  <si>
-    <t>LC03_F</t>
-  </si>
-  <si>
-    <t>LC04_F</t>
-  </si>
-  <si>
-    <t>LC05_F</t>
-  </si>
-  <si>
-    <t>LC06_F</t>
-  </si>
-  <si>
-    <t>LC07_F</t>
-  </si>
-  <si>
-    <t>LC08_F</t>
-  </si>
-  <si>
-    <t>LC09_F</t>
-  </si>
-  <si>
-    <t>LC10_F</t>
-  </si>
-  <si>
-    <t>LC11_F</t>
-  </si>
-  <si>
-    <t>LC12_F</t>
-  </si>
-  <si>
-    <t>LC13_F</t>
-  </si>
-  <si>
-    <t>LP01_F</t>
-  </si>
-  <si>
-    <t>LP02_F</t>
-  </si>
-  <si>
-    <t>LP03_F</t>
-  </si>
-  <si>
-    <t>LP04_F</t>
-  </si>
-  <si>
-    <t>LP05_F</t>
-  </si>
-  <si>
-    <t>LP06_F</t>
-  </si>
-  <si>
-    <t>LP08_F</t>
-  </si>
-  <si>
-    <t>LP09_F</t>
-  </si>
-  <si>
-    <t>LP10_F</t>
-  </si>
-  <si>
-    <t>LP11_F</t>
-  </si>
-  <si>
-    <t>LP12_F</t>
-  </si>
-  <si>
-    <t>LP13_F</t>
-  </si>
-  <si>
-    <t>LP14_F</t>
-  </si>
-  <si>
-    <t>LP16_F</t>
-  </si>
-  <si>
-    <t>LP17_F</t>
-  </si>
-  <si>
-    <t>LP18_F</t>
-  </si>
-  <si>
-    <t>LP19_F</t>
-  </si>
-  <si>
-    <t>LP20_F</t>
-  </si>
-  <si>
     <t>Not Recorded</t>
   </si>
   <si>
     <t>Multi-racial</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>5'3"</t>
-  </si>
-  <si>
-    <t>6'-"</t>
-  </si>
-  <si>
-    <t>5'2"</t>
-  </si>
-  <si>
-    <t>5'0"</t>
-  </si>
-  <si>
-    <t>5'9"</t>
-  </si>
-  <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>6'1"</t>
-  </si>
-  <si>
-    <t>5'1"</t>
-  </si>
-  <si>
-    <t>4'7"</t>
-  </si>
-  <si>
-    <t>4'11"</t>
   </si>
   <si>
     <t>Bin</t>
@@ -1514,8 +110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1602,12 +198,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1627,10 +226,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.140031340239073"/>
-          <c:y val="0.0529531568228106"/>
-          <c:w val="0.812554668630658"/>
-          <c:h val="0.78367513382861"/>
+          <c:x val="0.14003134023907299"/>
+          <c:y val="5.2953156822810599E-2"/>
+          <c:w val="0.81255466863065795"/>
+          <c:h val="0.78367513382860998"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1693,7 +292,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1745,26 +343,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-963B-9B49-9878-796060D1DDCE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1822,7 +425,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1874,26 +476,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-963B-9B49-9878-796060D1DDCE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -1956,7 +563,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2077,7 +683,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2166,10 +771,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.629780745638839"/>
+          <c:x val="0.62978074563883901"/>
           <c:y val="0.228589281178562"/>
-          <c:w val="0.216241658641591"/>
-          <c:h val="0.0959845059690119"/>
+          <c:w val="0.21624165864159101"/>
+          <c:h val="9.5984505969011896E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2239,7 +844,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2259,10 +864,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.140031340239073"/>
-          <c:y val="0.0529531568228106"/>
-          <c:w val="0.812554668630658"/>
-          <c:h val="0.78367513382861"/>
+          <c:x val="0.14003134023907299"/>
+          <c:y val="5.2953156822810599E-2"/>
+          <c:w val="0.81255466863065795"/>
+          <c:h val="0.78367513382860998"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2325,7 +930,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2377,26 +981,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-538B-6849-AEF2-09ECD0725547}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2454,7 +1063,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2480,26 +1088,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-538B-6849-AEF2-09ECD0725547}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -2562,7 +1175,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2683,7 +1295,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2772,10 +1383,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.560716025604713"/>
-          <c:y val="0.167298958597917"/>
-          <c:w val="0.374857531297796"/>
-          <c:h val="0.0959845059690119"/>
+          <c:x val="0.56071602560471301"/>
+          <c:y val="0.16729895859791699"/>
+          <c:w val="0.37485753129779598"/>
+          <c:h val="9.5984505969011896E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2845,7 +1456,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2865,10 +1476,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.140031340239073"/>
-          <c:y val="0.0529531568228106"/>
-          <c:w val="0.812554668630658"/>
-          <c:h val="0.78367513382861"/>
+          <c:x val="0.14003134023907299"/>
+          <c:y val="5.2953156822810599E-2"/>
+          <c:w val="0.81255466863065795"/>
+          <c:h val="0.78367513382860998"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2931,7 +1542,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2957,31 +1567,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2993,32 +1603,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCB5-A947-B79A-F80D1C15737F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3076,7 +1691,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3102,31 +1716,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3138,32 +1752,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DCB5-A947-B79A-F80D1C15737F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -3226,7 +1845,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3347,7 +1965,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3436,10 +2053,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.469559737236235"/>
-          <c:y val="0.0769763779527559"/>
-          <c:w val="0.490632738704272"/>
-          <c:h val="0.0959845059690119"/>
+          <c:x val="0.46955973723623501"/>
+          <c:y val="7.6976377952755901E-2"/>
+          <c:w val="0.49063273870427199"/>
+          <c:h val="9.5984505969011896E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3509,7 +2126,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3529,10 +2146,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.140031340239073"/>
-          <c:y val="0.0529531568228106"/>
-          <c:w val="0.812554668630658"/>
-          <c:h val="0.78367513382861"/>
+          <c:x val="0.14003134023907299"/>
+          <c:y val="5.2953156822810599E-2"/>
+          <c:w val="0.81255466863065795"/>
+          <c:h val="0.78367513382860998"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3595,7 +2212,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3621,31 +2237,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3657,32 +2273,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E043-F84B-8BF9-4EE84D083FDA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3740,7 +2361,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3766,31 +2386,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3802,32 +2422,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E043-F84B-8BF9-4EE84D083FDA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -3890,7 +2515,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4011,7 +2635,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4100,10 +2723,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.469559737236235"/>
-          <c:y val="0.0769763779527559"/>
-          <c:w val="0.283028159615641"/>
-          <c:h val="0.0959845059690119"/>
+          <c:x val="0.46955973723623501"/>
+          <c:y val="7.6976377952755901E-2"/>
+          <c:w val="0.28302815961564098"/>
+          <c:h val="9.5984505969011896E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4173,7 +2796,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4193,10 +2816,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.140031340239073"/>
-          <c:y val="0.0529531568228106"/>
-          <c:w val="0.812554668630658"/>
-          <c:h val="0.78367513382861"/>
+          <c:x val="0.14003134023907299"/>
+          <c:y val="5.2953156822810599E-2"/>
+          <c:w val="0.81255466863065795"/>
+          <c:h val="0.78367513382860998"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4302,14 +2925,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A2A-4D48-B60B-A5C7164A8F2B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4410,14 +3038,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A2A-4D48-B60B-A5C7164A8F2B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -4489,8 +3122,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.454766620667262"/>
-              <c:y val="0.904889604937711"/>
+              <c:x val="0.45476662066726198"/>
+              <c:y val="0.90488960493771098"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4701,10 +3334,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.247337515014013"/>
+          <c:x val="0.24733751501401299"/>
           <c:y val="0.118911861823724"/>
-          <c:w val="0.447639148199259"/>
-          <c:h val="0.0857498468311058"/>
+          <c:w val="0.44763914819925898"/>
+          <c:h val="8.57498468311058E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4774,7 +3407,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4794,10 +3427,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.140031340239073"/>
-          <c:y val="0.0529531568228106"/>
-          <c:w val="0.812554668630658"/>
-          <c:h val="0.78367513382861"/>
+          <c:x val="0.14003134023907299"/>
+          <c:y val="5.2953156822810599E-2"/>
+          <c:w val="0.81255466863065795"/>
+          <c:h val="0.78367513382860998"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4903,14 +3536,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09D8-6C42-9199-7E56796BAED3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5011,14 +3649,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-09D8-6C42-9199-7E56796BAED3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -5295,9 +3938,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.256753710870887"/>
-          <c:y val="0.17052476504953"/>
-          <c:w val="0.324949063570443"/>
-          <c:h val="0.0959845059690119"/>
+          <c:y val="0.17052476504953001"/>
+          <c:w val="0.32494906357044301"/>
+          <c:h val="9.5984505969011896E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5367,7 +4010,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5387,10 +4030,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.140031340239073"/>
-          <c:y val="0.0529531568228106"/>
-          <c:w val="0.812554668630658"/>
-          <c:h val="0.78367513382861"/>
+          <c:x val="0.14003134023907299"/>
+          <c:y val="5.2953156822810599E-2"/>
+          <c:w val="0.81255466863065795"/>
+          <c:h val="0.78367513382860998"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5501,23 +4144,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0072-BB4F-B048-08A45F1F6A79}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5623,23 +4271,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0072-BB4F-B048-08A45F1F6A79}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -5916,9 +4569,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.659766893545086"/>
-          <c:y val="0.206008636017272"/>
-          <c:w val="0.267118644067797"/>
-          <c:h val="0.0959845059690119"/>
+          <c:y val="0.20600863601727201"/>
+          <c:w val="0.26711864406779701"/>
+          <c:h val="9.5984505969011896E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10127,7 +8780,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10159,7 +8818,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10196,7 +8861,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10228,7 +8899,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10265,7 +8942,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10302,7 +8985,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10339,7 +9028,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10621,5732 +9316,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>174</v>
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1">
+        <v>2014</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1" t="s">
-        <v>175</v>
-      </c>
-      <c r="N1" t="s">
-        <v>176</v>
-      </c>
-      <c r="O1" t="s">
-        <v>177</v>
-      </c>
-      <c r="P1" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>216</v>
-      </c>
-      <c r="R1" t="s">
-        <v>217</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D2">
-        <v>2014</v>
-      </c>
-      <c r="E2">
-        <v>13225</v>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2">
-        <v>37.58889763268499</v>
-      </c>
-      <c r="J2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2">
-        <v>240</v>
-      </c>
-      <c r="L2" t="s">
-        <v>163</v>
-      </c>
-      <c r="M2" t="s">
-        <v>346</v>
-      </c>
-      <c r="N2" t="s">
-        <v>346</v>
-      </c>
-      <c r="O2" t="s">
-        <v>346</v>
-      </c>
-      <c r="P2" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>346</v>
-      </c>
-      <c r="R2" t="s">
-        <v>346</v>
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D3">
-        <v>2014</v>
-      </c>
-      <c r="E3">
-        <v>10467</v>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3">
-        <v>34.612627994486758</v>
-      </c>
-      <c r="J3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3">
-        <v>208</v>
-      </c>
-      <c r="L3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M3" t="s">
-        <v>346</v>
-      </c>
-      <c r="N3" t="s">
-        <v>346</v>
-      </c>
-      <c r="O3" t="s">
-        <v>346</v>
-      </c>
-      <c r="P3" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>346</v>
-      </c>
-      <c r="R3" t="s">
-        <v>346</v>
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D4">
-        <v>2014</v>
-      </c>
-      <c r="E4">
-        <v>10837</v>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4">
-        <v>24.961029803716411</v>
-      </c>
-      <c r="J4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K4">
-        <v>150</v>
-      </c>
-      <c r="L4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M4" t="s">
-        <v>346</v>
-      </c>
-      <c r="N4" t="s">
-        <v>346</v>
-      </c>
-      <c r="O4" t="s">
-        <v>346</v>
-      </c>
-      <c r="P4" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>346</v>
-      </c>
-      <c r="R4" t="s">
-        <v>346</v>
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D5">
-        <v>2014</v>
-      </c>
-      <c r="E5">
-        <v>10560</v>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>55</v>
-      </c>
-      <c r="G5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5">
-        <v>26.755681622474352</v>
-      </c>
-      <c r="J5" t="s">
-        <v>149</v>
-      </c>
-      <c r="K5">
-        <v>137</v>
-      </c>
-      <c r="L5" t="s">
-        <v>344</v>
-      </c>
-      <c r="M5" t="s">
-        <v>346</v>
-      </c>
-      <c r="N5" t="s">
-        <v>346</v>
-      </c>
-      <c r="O5" t="s">
-        <v>346</v>
-      </c>
-      <c r="P5" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>346</v>
-      </c>
-      <c r="R5" t="s">
-        <v>346</v>
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E6">
-        <v>17359</v>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J6" t="s">
-        <v>346</v>
-      </c>
-      <c r="K6" t="s">
-        <v>346</v>
-      </c>
-      <c r="L6" t="s">
-        <v>163</v>
-      </c>
-      <c r="M6" t="s">
-        <v>346</v>
-      </c>
-      <c r="N6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O6" t="s">
-        <v>346</v>
-      </c>
-      <c r="P6" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>346</v>
-      </c>
-      <c r="R6" t="s">
-        <v>346</v>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
-      <c r="E7">
-        <v>13224</v>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7">
-        <v>30.553291770646041</v>
-      </c>
-      <c r="J7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K7">
-        <v>178</v>
-      </c>
-      <c r="L7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M7" t="s">
-        <v>346</v>
-      </c>
-      <c r="N7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O7" t="s">
-        <v>346</v>
-      </c>
-      <c r="P7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>346</v>
-      </c>
-      <c r="R7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D8">
-        <v>2014</v>
-      </c>
-      <c r="E8">
-        <v>10487</v>
-      </c>
-      <c r="F8">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8">
-        <v>19.131129418721425</v>
-      </c>
-      <c r="J8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8">
-        <v>108</v>
-      </c>
-      <c r="L8" t="s">
-        <v>341</v>
-      </c>
-      <c r="M8" t="s">
-        <v>346</v>
-      </c>
-      <c r="N8" t="s">
-        <v>346</v>
-      </c>
-      <c r="O8" t="s">
-        <v>346</v>
-      </c>
-      <c r="P8" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>346</v>
-      </c>
-      <c r="R8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D9">
-        <v>2014</v>
-      </c>
-      <c r="E9">
-        <v>10576</v>
-      </c>
-      <c r="F9">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9">
-        <v>38.620733979749211</v>
-      </c>
-      <c r="J9" t="s">
-        <v>151</v>
-      </c>
-      <c r="K9">
-        <v>225</v>
-      </c>
-      <c r="L9" t="s">
-        <v>159</v>
-      </c>
-      <c r="M9" t="s">
-        <v>346</v>
-      </c>
-      <c r="N9" t="s">
-        <v>346</v>
-      </c>
-      <c r="O9" t="s">
-        <v>346</v>
-      </c>
-      <c r="P9" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>346</v>
-      </c>
-      <c r="R9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D10">
-        <v>2014</v>
-      </c>
-      <c r="E10">
-        <v>10663</v>
-      </c>
-      <c r="F10">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>340</v>
-      </c>
-      <c r="H10" t="s">
-        <v>142</v>
-      </c>
-      <c r="I10">
-        <v>33.905719817612471</v>
-      </c>
-      <c r="J10" t="s">
-        <v>151</v>
-      </c>
-      <c r="K10">
-        <v>250</v>
-      </c>
-      <c r="L10" t="s">
-        <v>342</v>
-      </c>
-      <c r="M10" t="s">
-        <v>346</v>
-      </c>
-      <c r="N10" t="s">
-        <v>346</v>
-      </c>
-      <c r="O10" t="s">
-        <v>346</v>
-      </c>
-      <c r="P10" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>346</v>
-      </c>
-      <c r="R10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>355</v>
-      </c>
-      <c r="D11">
-        <v>2014</v>
-      </c>
-      <c r="E11">
-        <v>13167</v>
-      </c>
-      <c r="F11">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11">
-        <v>27.438413921823255</v>
-      </c>
-      <c r="J11" t="s">
-        <v>149</v>
-      </c>
-      <c r="K11">
-        <v>170</v>
-      </c>
-      <c r="L11" t="s">
-        <v>170</v>
-      </c>
-      <c r="M11" t="s">
-        <v>346</v>
-      </c>
-      <c r="N11" t="s">
-        <v>346</v>
-      </c>
-      <c r="O11" t="s">
-        <v>346</v>
-      </c>
-      <c r="P11" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>346</v>
-      </c>
-      <c r="R11" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>355</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
-      <c r="E12">
-        <v>13226</v>
-      </c>
-      <c r="F12">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I12">
-        <v>36.58007316014632</v>
-      </c>
-      <c r="J12" t="s">
-        <v>151</v>
-      </c>
-      <c r="K12">
-        <v>200</v>
-      </c>
-      <c r="L12" t="s">
-        <v>343</v>
-      </c>
-      <c r="M12" t="s">
-        <v>346</v>
-      </c>
-      <c r="N12" t="s">
-        <v>346</v>
-      </c>
-      <c r="O12" t="s">
-        <v>346</v>
-      </c>
-      <c r="P12" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>346</v>
-      </c>
-      <c r="R12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D13">
-        <v>2014</v>
-      </c>
-      <c r="E13">
-        <v>13168</v>
-      </c>
-      <c r="F13">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" t="s">
-        <v>142</v>
-      </c>
-      <c r="I13">
-        <v>20.597724789199578</v>
-      </c>
-      <c r="J13" t="s">
-        <v>148</v>
-      </c>
-      <c r="K13">
-        <v>120</v>
-      </c>
-      <c r="L13" t="s">
-        <v>159</v>
-      </c>
-      <c r="M13" t="s">
-        <v>346</v>
-      </c>
-      <c r="N13" t="s">
-        <v>346</v>
-      </c>
-      <c r="O13" t="s">
-        <v>346</v>
-      </c>
-      <c r="P13" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>346</v>
-      </c>
-      <c r="R13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>355</v>
-      </c>
-      <c r="D14">
-        <v>2014</v>
-      </c>
-      <c r="E14">
-        <v>13227</v>
-      </c>
-      <c r="F14">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" t="s">
-        <v>338</v>
-      </c>
-      <c r="I14">
-        <v>34.329541315332634</v>
-      </c>
-      <c r="J14" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14">
-        <v>200</v>
-      </c>
-      <c r="L14" t="s">
-        <v>159</v>
-      </c>
-      <c r="M14" t="s">
-        <v>346</v>
-      </c>
-      <c r="N14" t="s">
-        <v>346</v>
-      </c>
-      <c r="O14" t="s">
-        <v>346</v>
-      </c>
-      <c r="P14" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>346</v>
-      </c>
-      <c r="R14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>356</v>
-      </c>
-      <c r="D15">
-        <v>2014</v>
-      </c>
-      <c r="E15">
-        <v>10516</v>
-      </c>
-      <c r="F15">
-        <v>64</v>
-      </c>
-      <c r="G15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" t="s">
-        <v>145</v>
-      </c>
-      <c r="I15">
-        <v>34.329541315332634</v>
-      </c>
-      <c r="J15" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15">
-        <v>200</v>
-      </c>
-      <c r="L15" t="s">
-        <v>159</v>
-      </c>
-      <c r="M15" t="s">
-        <v>346</v>
-      </c>
-      <c r="N15" t="s">
-        <v>346</v>
-      </c>
-      <c r="O15" t="s">
-        <v>346</v>
-      </c>
-      <c r="P15" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>346</v>
-      </c>
-      <c r="R15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>356</v>
-      </c>
-      <c r="D16">
-        <v>2014</v>
-      </c>
-      <c r="E16">
-        <v>10475</v>
-      </c>
-      <c r="F16">
-        <v>64</v>
-      </c>
-      <c r="G16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" t="s">
-        <v>145</v>
-      </c>
-      <c r="I16">
-        <v>38.349218516618848</v>
-      </c>
-      <c r="J16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16">
-        <v>165</v>
-      </c>
-      <c r="L16" t="s">
-        <v>349</v>
-      </c>
-      <c r="M16" t="s">
-        <v>346</v>
-      </c>
-      <c r="N16" t="s">
-        <v>346</v>
-      </c>
-      <c r="O16" t="s">
-        <v>346</v>
-      </c>
-      <c r="P16" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>346</v>
-      </c>
-      <c r="R16" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>356</v>
-      </c>
-      <c r="D17">
-        <v>2014</v>
-      </c>
-      <c r="E17">
-        <v>10519</v>
-      </c>
-      <c r="F17">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" t="s">
-        <v>145</v>
-      </c>
-      <c r="I17" t="s">
-        <v>346</v>
-      </c>
-      <c r="J17" t="s">
-        <v>346</v>
-      </c>
-      <c r="K17" t="s">
-        <v>346</v>
-      </c>
-      <c r="L17" t="s">
-        <v>346</v>
-      </c>
-      <c r="M17" t="s">
-        <v>346</v>
-      </c>
-      <c r="N17" t="s">
-        <v>346</v>
-      </c>
-      <c r="O17" t="s">
-        <v>346</v>
-      </c>
-      <c r="P17" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>346</v>
-      </c>
-      <c r="R17" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>356</v>
-      </c>
-      <c r="D18">
-        <v>2014</v>
-      </c>
-      <c r="E18">
-        <v>10458</v>
-      </c>
-      <c r="F18">
-        <v>55</v>
-      </c>
-      <c r="G18" t="s">
-        <v>340</v>
-      </c>
-      <c r="H18" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18">
-        <v>29.682182363734611</v>
-      </c>
-      <c r="J18" t="s">
-        <v>149</v>
-      </c>
-      <c r="K18">
-        <v>201</v>
-      </c>
-      <c r="L18" t="s">
-        <v>345</v>
-      </c>
-      <c r="M18" t="s">
-        <v>346</v>
-      </c>
-      <c r="N18" t="s">
-        <v>346</v>
-      </c>
-      <c r="O18" t="s">
-        <v>346</v>
-      </c>
-      <c r="P18" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>346</v>
-      </c>
-      <c r="R18" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>356</v>
-      </c>
-      <c r="D19">
-        <v>2014</v>
-      </c>
-      <c r="E19">
-        <v>17349</v>
-      </c>
-      <c r="F19">
-        <v>55</v>
-      </c>
-      <c r="G19" t="s">
-        <v>140</v>
-      </c>
-      <c r="H19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19">
-        <v>27.457132784088053</v>
-      </c>
-      <c r="J19" t="s">
-        <v>149</v>
-      </c>
-      <c r="K19">
-        <v>165</v>
-      </c>
-      <c r="L19" t="s">
-        <v>166</v>
-      </c>
-      <c r="M19" t="s">
-        <v>346</v>
-      </c>
-      <c r="N19" t="s">
-        <v>346</v>
-      </c>
-      <c r="O19" t="s">
-        <v>346</v>
-      </c>
-      <c r="P19" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>346</v>
-      </c>
-      <c r="R19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>356</v>
-      </c>
-      <c r="D20">
-        <v>2014</v>
-      </c>
-      <c r="E20">
-        <v>6019</v>
-      </c>
-      <c r="F20">
-        <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" t="s">
-        <v>142</v>
-      </c>
-      <c r="I20">
-        <v>21.300078765838002</v>
-      </c>
-      <c r="J20" t="s">
-        <v>148</v>
-      </c>
-      <c r="K20">
-        <v>128</v>
-      </c>
-      <c r="L20" t="s">
-        <v>166</v>
-      </c>
-      <c r="M20" t="s">
-        <v>346</v>
-      </c>
-      <c r="N20" t="s">
-        <v>346</v>
-      </c>
-      <c r="O20" t="s">
-        <v>346</v>
-      </c>
-      <c r="P20" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>346</v>
-      </c>
-      <c r="R20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>356</v>
-      </c>
-      <c r="D21">
-        <v>2014</v>
-      </c>
-      <c r="E21">
-        <v>17324</v>
-      </c>
-      <c r="F21">
-        <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" t="s">
-        <v>346</v>
-      </c>
-      <c r="J21" t="s">
-        <v>346</v>
-      </c>
-      <c r="K21" t="s">
-        <v>346</v>
-      </c>
-      <c r="L21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M21" t="s">
-        <v>346</v>
-      </c>
-      <c r="N21" t="s">
-        <v>346</v>
-      </c>
-      <c r="O21" t="s">
-        <v>346</v>
-      </c>
-      <c r="P21" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>346</v>
-      </c>
-      <c r="R21" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>356</v>
-      </c>
-      <c r="D22">
-        <v>2014</v>
-      </c>
-      <c r="E22">
-        <v>10478</v>
-      </c>
-      <c r="F22">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" t="s">
-        <v>142</v>
-      </c>
-      <c r="I22" t="s">
-        <v>346</v>
-      </c>
-      <c r="J22" t="s">
-        <v>346</v>
-      </c>
-      <c r="K22">
-        <v>172</v>
-      </c>
-      <c r="L22" t="s">
-        <v>346</v>
-      </c>
-      <c r="M22" t="s">
-        <v>346</v>
-      </c>
-      <c r="N22" t="s">
-        <v>346</v>
-      </c>
-      <c r="O22" t="s">
-        <v>346</v>
-      </c>
-      <c r="P22" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>346</v>
-      </c>
-      <c r="R22" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>356</v>
-      </c>
-      <c r="D23">
-        <v>2014</v>
-      </c>
-      <c r="E23">
-        <v>10536</v>
-      </c>
-      <c r="F23">
-        <v>56</v>
-      </c>
-      <c r="G23" t="s">
-        <v>340</v>
-      </c>
-      <c r="H23" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23">
-        <v>26.386526783186806</v>
-      </c>
-      <c r="J23" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23">
-        <v>200</v>
-      </c>
-      <c r="L23" t="s">
-        <v>347</v>
-      </c>
-      <c r="M23" t="s">
-        <v>346</v>
-      </c>
-      <c r="N23" t="s">
-        <v>346</v>
-      </c>
-      <c r="O23" t="s">
-        <v>346</v>
-      </c>
-      <c r="P23" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>346</v>
-      </c>
-      <c r="R23" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>356</v>
-      </c>
-      <c r="D24">
-        <v>2014</v>
-      </c>
-      <c r="E24">
-        <v>14137</v>
-      </c>
-      <c r="F24">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24">
-        <v>17.94989400244858</v>
-      </c>
-      <c r="J24" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24">
-        <v>95</v>
-      </c>
-      <c r="L24" t="s">
-        <v>348</v>
-      </c>
-      <c r="M24" t="s">
-        <v>346</v>
-      </c>
-      <c r="N24" t="s">
-        <v>346</v>
-      </c>
-      <c r="O24" t="s">
-        <v>346</v>
-      </c>
-      <c r="P24" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>346</v>
-      </c>
-      <c r="R24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>356</v>
-      </c>
-      <c r="D25">
-        <v>2014</v>
-      </c>
-      <c r="E25">
-        <v>13220</v>
-      </c>
-      <c r="F25">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25">
-        <v>21.926856952399579</v>
-      </c>
-      <c r="J25" t="s">
-        <v>148</v>
-      </c>
-      <c r="K25">
-        <v>140</v>
-      </c>
-      <c r="L25" t="s">
-        <v>163</v>
-      </c>
-      <c r="M25" t="s">
-        <v>346</v>
-      </c>
-      <c r="N25" t="s">
-        <v>346</v>
-      </c>
-      <c r="O25" t="s">
-        <v>346</v>
-      </c>
-      <c r="P25" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>346</v>
-      </c>
-      <c r="R25" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>356</v>
-      </c>
-      <c r="D26">
-        <v>2014</v>
-      </c>
-      <c r="E26">
-        <v>13221</v>
-      </c>
-      <c r="F26">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26">
-        <v>20.902530290825261</v>
-      </c>
-      <c r="J26" t="s">
-        <v>148</v>
-      </c>
-      <c r="K26">
-        <v>118</v>
-      </c>
-      <c r="L26" t="s">
-        <v>341</v>
-      </c>
-      <c r="M26" t="s">
-        <v>346</v>
-      </c>
-      <c r="N26" t="s">
-        <v>346</v>
-      </c>
-      <c r="O26" t="s">
-        <v>346</v>
-      </c>
-      <c r="P26" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>346</v>
-      </c>
-      <c r="R26" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" t="s">
-        <v>356</v>
-      </c>
-      <c r="D27">
-        <v>2014</v>
-      </c>
-      <c r="E27">
-        <v>10491</v>
-      </c>
-      <c r="F27">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s">
-        <v>140</v>
-      </c>
-      <c r="H27" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27">
-        <v>21.207194956762798</v>
-      </c>
-      <c r="J27" t="s">
-        <v>148</v>
-      </c>
-      <c r="K27">
-        <v>105</v>
-      </c>
-      <c r="L27" t="s">
-        <v>350</v>
-      </c>
-      <c r="M27" t="s">
-        <v>346</v>
-      </c>
-      <c r="N27" t="s">
-        <v>346</v>
-      </c>
-      <c r="O27" t="s">
-        <v>346</v>
-      </c>
-      <c r="P27" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>346</v>
-      </c>
-      <c r="R27" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>356</v>
-      </c>
-      <c r="D28">
-        <v>2014</v>
-      </c>
-      <c r="E28">
-        <v>13222</v>
-      </c>
-      <c r="F28">
-        <v>31</v>
-      </c>
-      <c r="G28" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28">
-        <v>24.888917453616155</v>
-      </c>
-      <c r="J28" t="s">
-        <v>148</v>
-      </c>
-      <c r="K28">
-        <v>145</v>
-      </c>
-      <c r="L28" t="s">
-        <v>159</v>
-      </c>
-      <c r="M28" t="s">
-        <v>346</v>
-      </c>
-      <c r="N28" t="s">
-        <v>346</v>
-      </c>
-      <c r="O28" t="s">
-        <v>346</v>
-      </c>
-      <c r="P28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>346</v>
-      </c>
-      <c r="R28" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D29">
-        <v>2014</v>
-      </c>
-      <c r="E29">
-        <v>10584</v>
-      </c>
-      <c r="F29">
-        <v>51</v>
-      </c>
-      <c r="G29" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29">
-        <v>22.496744993489987</v>
-      </c>
-      <c r="J29" t="s">
-        <v>148</v>
-      </c>
-      <c r="K29">
-        <v>123</v>
-      </c>
-      <c r="L29" t="s">
-        <v>343</v>
-      </c>
-      <c r="M29" t="s">
-        <v>346</v>
-      </c>
-      <c r="N29" t="s">
-        <v>346</v>
-      </c>
-      <c r="O29" t="s">
-        <v>346</v>
-      </c>
-      <c r="P29" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>346</v>
-      </c>
-      <c r="R29" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>356</v>
-      </c>
-      <c r="D30">
-        <v>2014</v>
-      </c>
-      <c r="E30">
-        <v>13223</v>
-      </c>
-      <c r="F30">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s">
-        <v>140</v>
-      </c>
-      <c r="H30" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30">
-        <v>24.023551680321358</v>
-      </c>
-      <c r="J30" t="s">
-        <v>148</v>
-      </c>
-      <c r="K30">
-        <v>158</v>
-      </c>
-      <c r="L30" t="s">
-        <v>161</v>
-      </c>
-      <c r="M30" t="s">
-        <v>346</v>
-      </c>
-      <c r="N30" t="s">
-        <v>346</v>
-      </c>
-      <c r="O30" t="s">
-        <v>346</v>
-      </c>
-      <c r="P30" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>346</v>
-      </c>
-      <c r="R30" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D31">
-        <v>2014</v>
-      </c>
-      <c r="E31">
-        <v>10766</v>
-      </c>
-      <c r="F31">
-        <v>56</v>
-      </c>
-      <c r="G31" t="s">
-        <v>140</v>
-      </c>
-      <c r="H31" t="s">
-        <v>339</v>
-      </c>
-      <c r="I31">
-        <v>39.323578647157291</v>
-      </c>
-      <c r="J31" t="s">
-        <v>151</v>
-      </c>
-      <c r="K31">
-        <v>215</v>
-      </c>
-      <c r="L31" t="s">
-        <v>343</v>
-      </c>
-      <c r="M31" t="s">
-        <v>346</v>
-      </c>
-      <c r="N31" t="s">
-        <v>346</v>
-      </c>
-      <c r="O31" t="s">
-        <v>346</v>
-      </c>
-      <c r="P31" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>346</v>
-      </c>
-      <c r="R31" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" t="s">
-        <v>356</v>
-      </c>
-      <c r="D32">
-        <v>2014</v>
-      </c>
-      <c r="E32">
-        <v>10451</v>
-      </c>
-      <c r="F32">
-        <v>71</v>
-      </c>
-      <c r="G32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H32" t="s">
-        <v>339</v>
-      </c>
-      <c r="I32">
-        <v>28.057784323928235</v>
-      </c>
-      <c r="J32" t="s">
-        <v>149</v>
-      </c>
-      <c r="K32">
-        <v>190</v>
-      </c>
-      <c r="L32" t="s">
-        <v>345</v>
-      </c>
-      <c r="M32" t="s">
-        <v>346</v>
-      </c>
-      <c r="N32" t="s">
-        <v>346</v>
-      </c>
-      <c r="O32" t="s">
-        <v>346</v>
-      </c>
-      <c r="P32" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>346</v>
-      </c>
-      <c r="R32" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" t="s">
-        <v>355</v>
-      </c>
-      <c r="D33">
-        <v>2016</v>
-      </c>
-      <c r="E33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33">
-        <v>41</v>
-      </c>
-      <c r="G33" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" t="s">
-        <v>145</v>
-      </c>
-      <c r="I33">
-        <v>38.277469789924936</v>
-      </c>
-      <c r="J33" t="s">
-        <v>151</v>
-      </c>
-      <c r="K33">
-        <v>223</v>
-      </c>
-      <c r="L33" t="s">
-        <v>159</v>
-      </c>
-      <c r="M33" t="s">
-        <v>181</v>
-      </c>
-      <c r="N33" t="s">
-        <v>184</v>
-      </c>
-      <c r="O33" t="s">
-        <v>181</v>
-      </c>
-      <c r="P33" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>218</v>
-      </c>
-      <c r="R33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>355</v>
-      </c>
-      <c r="D34">
-        <v>2016</v>
-      </c>
-      <c r="E34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34">
-        <v>64</v>
-      </c>
-      <c r="G34" t="s">
-        <v>140</v>
-      </c>
-      <c r="H34" t="s">
-        <v>145</v>
-      </c>
-      <c r="I34">
-        <v>41.034580054680269</v>
-      </c>
-      <c r="J34" t="s">
-        <v>151</v>
-      </c>
-      <c r="K34">
-        <v>262</v>
-      </c>
-      <c r="L34" t="s">
-        <v>155</v>
-      </c>
-      <c r="M34" t="s">
-        <v>186</v>
-      </c>
-      <c r="N34" t="s">
-        <v>181</v>
-      </c>
-      <c r="O34" t="s">
-        <v>181</v>
-      </c>
-      <c r="P34" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>218</v>
-      </c>
-      <c r="R34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" t="s">
-        <v>355</v>
-      </c>
-      <c r="D35">
-        <v>2016</v>
-      </c>
-      <c r="E35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35">
-        <v>55</v>
-      </c>
-      <c r="G35" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" t="s">
-        <v>145</v>
-      </c>
-      <c r="I35">
-        <v>30.227763170050732</v>
-      </c>
-      <c r="J35" t="s">
-        <v>151</v>
-      </c>
-      <c r="K35">
-        <v>193</v>
-      </c>
-      <c r="L35" t="s">
-        <v>163</v>
-      </c>
-      <c r="M35" t="s">
-        <v>181</v>
-      </c>
-      <c r="N35" t="s">
-        <v>181</v>
-      </c>
-      <c r="O35" t="s">
-        <v>181</v>
-      </c>
-      <c r="P35" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>218</v>
-      </c>
-      <c r="R35" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" t="s">
-        <v>355</v>
-      </c>
-      <c r="D36">
-        <v>2016</v>
-      </c>
-      <c r="E36" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36">
-        <v>37</v>
-      </c>
-      <c r="G36" t="s">
-        <v>140</v>
-      </c>
-      <c r="H36" t="s">
-        <v>145</v>
-      </c>
-      <c r="I36">
-        <v>46.812236241464717</v>
-      </c>
-      <c r="J36" t="s">
-        <v>151</v>
-      </c>
-      <c r="K36">
-        <v>317</v>
-      </c>
-      <c r="L36" t="s">
-        <v>164</v>
-      </c>
-      <c r="M36" t="s">
-        <v>181</v>
-      </c>
-      <c r="N36" t="s">
-        <v>187</v>
-      </c>
-      <c r="O36" t="s">
-        <v>188</v>
-      </c>
-      <c r="P36" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>218</v>
-      </c>
-      <c r="R36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" t="s">
-        <v>355</v>
-      </c>
-      <c r="D37">
-        <v>2016</v>
-      </c>
-      <c r="E37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37">
-        <v>57</v>
-      </c>
-      <c r="G37" t="s">
-        <v>140</v>
-      </c>
-      <c r="H37" t="s">
-        <v>145</v>
-      </c>
-      <c r="I37">
-        <v>25.793085170194008</v>
-      </c>
-      <c r="J37" t="s">
-        <v>149</v>
-      </c>
-      <c r="K37">
-        <v>155</v>
-      </c>
-      <c r="L37" t="s">
-        <v>158</v>
-      </c>
-      <c r="M37" t="s">
-        <v>181</v>
-      </c>
-      <c r="N37" t="s">
-        <v>180</v>
-      </c>
-      <c r="O37" t="s">
-        <v>181</v>
-      </c>
-      <c r="P37" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>218</v>
-      </c>
-      <c r="R37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" t="s">
-        <v>355</v>
-      </c>
-      <c r="D38">
-        <v>2016</v>
-      </c>
-      <c r="E38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38">
-        <v>33</v>
-      </c>
-      <c r="G38" t="s">
-        <v>140</v>
-      </c>
-      <c r="H38" t="s">
-        <v>145</v>
-      </c>
-      <c r="I38">
-        <v>34.329569318318327</v>
-      </c>
-      <c r="J38" t="s">
-        <v>151</v>
-      </c>
-      <c r="K38">
-        <v>200</v>
-      </c>
-      <c r="L38" t="s">
-        <v>159</v>
-      </c>
-      <c r="M38" t="s">
-        <v>208</v>
-      </c>
-      <c r="N38" t="s">
-        <v>209</v>
-      </c>
-      <c r="O38" t="s">
-        <v>181</v>
-      </c>
-      <c r="P38" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>218</v>
-      </c>
-      <c r="R38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" t="s">
-        <v>355</v>
-      </c>
-      <c r="D39">
-        <v>2016</v>
-      </c>
-      <c r="E39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39">
-        <v>40</v>
-      </c>
-      <c r="G39" t="s">
-        <v>140</v>
-      </c>
-      <c r="H39" t="s">
-        <v>145</v>
-      </c>
-      <c r="I39">
-        <v>30.666487633480315</v>
-      </c>
-      <c r="J39" t="s">
-        <v>151</v>
-      </c>
-      <c r="K39">
-        <v>190</v>
-      </c>
-      <c r="L39" t="s">
-        <v>170</v>
-      </c>
-      <c r="M39" t="s">
-        <v>181</v>
-      </c>
-      <c r="N39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O39" t="s">
-        <v>181</v>
-      </c>
-      <c r="P39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>218</v>
-      </c>
-      <c r="R39" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" t="s">
-        <v>355</v>
-      </c>
-      <c r="D40">
-        <v>2016</v>
-      </c>
-      <c r="E40" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>140</v>
-      </c>
-      <c r="H40" t="s">
-        <v>145</v>
-      </c>
-      <c r="I40">
-        <v>27.463655454654663</v>
-      </c>
-      <c r="J40" t="s">
-        <v>149</v>
-      </c>
-      <c r="K40">
-        <v>160</v>
-      </c>
-      <c r="L40" t="s">
-        <v>157</v>
-      </c>
-      <c r="M40" t="s">
-        <v>181</v>
-      </c>
-      <c r="N40" t="s">
-        <v>191</v>
-      </c>
-      <c r="O40" t="s">
-        <v>181</v>
-      </c>
-      <c r="P40" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>218</v>
-      </c>
-      <c r="R40" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" t="s">
-        <v>355</v>
-      </c>
-      <c r="D41">
-        <v>2016</v>
-      </c>
-      <c r="E41" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41">
-        <v>46</v>
-      </c>
-      <c r="G41" t="s">
-        <v>140</v>
-      </c>
-      <c r="H41" t="s">
-        <v>144</v>
-      </c>
-      <c r="I41">
-        <v>29.294565818298306</v>
-      </c>
-      <c r="J41" t="s">
-        <v>149</v>
-      </c>
-      <c r="K41">
-        <v>150</v>
-      </c>
-      <c r="L41" t="s">
-        <v>162</v>
-      </c>
-      <c r="M41" t="s">
-        <v>181</v>
-      </c>
-      <c r="N41" t="s">
-        <v>181</v>
-      </c>
-      <c r="O41" t="s">
-        <v>181</v>
-      </c>
-      <c r="P41" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>218</v>
-      </c>
-      <c r="R41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" t="s">
-        <v>355</v>
-      </c>
-      <c r="D42">
-        <v>2016</v>
-      </c>
-      <c r="E42" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42">
-        <v>33</v>
-      </c>
-      <c r="G42" t="s">
-        <v>140</v>
-      </c>
-      <c r="H42" t="s">
-        <v>144</v>
-      </c>
-      <c r="I42">
-        <v>32.107209584768917</v>
-      </c>
-      <c r="J42" t="s">
-        <v>151</v>
-      </c>
-      <c r="K42">
-        <v>205</v>
-      </c>
-      <c r="L42" t="s">
-        <v>155</v>
-      </c>
-      <c r="M42" t="s">
-        <v>181</v>
-      </c>
-      <c r="N42" t="s">
-        <v>181</v>
-      </c>
-      <c r="O42" t="s">
-        <v>181</v>
-      </c>
-      <c r="P42" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>218</v>
-      </c>
-      <c r="R42" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" t="s">
-        <v>355</v>
-      </c>
-      <c r="D43">
-        <v>2016</v>
-      </c>
-      <c r="E43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>140</v>
-      </c>
-      <c r="H43" t="s">
-        <v>144</v>
-      </c>
-      <c r="I43">
-        <v>20.175320811500207</v>
-      </c>
-      <c r="J43" t="s">
-        <v>148</v>
-      </c>
-      <c r="K43">
-        <v>125</v>
-      </c>
-      <c r="L43" t="s">
-        <v>170</v>
-      </c>
-      <c r="M43" t="s">
-        <v>181</v>
-      </c>
-      <c r="N43" t="s">
-        <v>181</v>
-      </c>
-      <c r="O43" t="s">
-        <v>181</v>
-      </c>
-      <c r="P43" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>218</v>
-      </c>
-      <c r="R43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D44">
-        <v>2016</v>
-      </c>
-      <c r="E44" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44">
-        <v>54</v>
-      </c>
-      <c r="G44" t="s">
-        <v>140</v>
-      </c>
-      <c r="H44" t="s">
-        <v>142</v>
-      </c>
-      <c r="I44">
-        <v>21.522538152219163</v>
-      </c>
-      <c r="J44" t="s">
-        <v>148</v>
-      </c>
-      <c r="K44">
-        <v>150</v>
-      </c>
-      <c r="L44" t="s">
-        <v>154</v>
-      </c>
-      <c r="M44" t="s">
-        <v>179</v>
-      </c>
-      <c r="N44" t="s">
-        <v>180</v>
-      </c>
-      <c r="O44" t="s">
-        <v>181</v>
-      </c>
-      <c r="P44" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>218</v>
-      </c>
-      <c r="R44" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" t="s">
-        <v>355</v>
-      </c>
-      <c r="D45">
-        <v>2016</v>
-      </c>
-      <c r="E45" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45">
-        <v>36</v>
-      </c>
-      <c r="G45" t="s">
-        <v>140</v>
-      </c>
-      <c r="H45" t="s">
-        <v>142</v>
-      </c>
-      <c r="I45">
-        <v>22.27355417589623</v>
-      </c>
-      <c r="J45" t="s">
-        <v>148</v>
-      </c>
-      <c r="K45">
-        <v>138</v>
-      </c>
-      <c r="L45" t="s">
-        <v>156</v>
-      </c>
-      <c r="M45" t="s">
-        <v>181</v>
-      </c>
-      <c r="N45" t="s">
-        <v>191</v>
-      </c>
-      <c r="O45" t="s">
-        <v>192</v>
-      </c>
-      <c r="P45" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>218</v>
-      </c>
-      <c r="R45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" t="s">
-        <v>355</v>
-      </c>
-      <c r="D46">
-        <v>2016</v>
-      </c>
-      <c r="E46" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46">
-        <v>37</v>
-      </c>
-      <c r="G46" t="s">
-        <v>140</v>
-      </c>
-      <c r="H46" t="s">
-        <v>142</v>
-      </c>
-      <c r="I46">
-        <v>26.247930973195281</v>
-      </c>
-      <c r="J46" t="s">
-        <v>149</v>
-      </c>
-      <c r="K46">
-        <v>210</v>
-      </c>
-      <c r="L46" t="s">
-        <v>167</v>
-      </c>
-      <c r="M46" t="s">
-        <v>181</v>
-      </c>
-      <c r="N46" t="s">
-        <v>196</v>
-      </c>
-      <c r="O46" t="s">
-        <v>183</v>
-      </c>
-      <c r="P46" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>240</v>
-      </c>
-      <c r="R46" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" t="s">
-        <v>355</v>
-      </c>
-      <c r="D47">
-        <v>2016</v>
-      </c>
-      <c r="E47" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47">
-        <v>48</v>
-      </c>
-      <c r="G47" t="s">
-        <v>140</v>
-      </c>
-      <c r="H47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I47">
-        <v>25.685333597298591</v>
-      </c>
-      <c r="J47" t="s">
-        <v>149</v>
-      </c>
-      <c r="K47">
-        <v>145</v>
-      </c>
-      <c r="L47" t="s">
-        <v>168</v>
-      </c>
-      <c r="M47" t="s">
-        <v>201</v>
-      </c>
-      <c r="N47" t="s">
-        <v>191</v>
-      </c>
-      <c r="O47" t="s">
-        <v>181</v>
-      </c>
-      <c r="P47" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>218</v>
-      </c>
-      <c r="R47" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" t="s">
-        <v>355</v>
-      </c>
-      <c r="D48">
-        <v>2016</v>
-      </c>
-      <c r="E48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>140</v>
-      </c>
-      <c r="H48" t="s">
-        <v>142</v>
-      </c>
-      <c r="I48">
-        <v>27.438436303640284</v>
-      </c>
-      <c r="J48" t="s">
-        <v>149</v>
-      </c>
-      <c r="K48">
-        <v>170</v>
-      </c>
-      <c r="L48" t="s">
-        <v>156</v>
-      </c>
-      <c r="M48" t="s">
-        <v>181</v>
-      </c>
-      <c r="N48" t="s">
-        <v>190</v>
-      </c>
-      <c r="O48" t="s">
-        <v>181</v>
-      </c>
-      <c r="P48" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>218</v>
-      </c>
-      <c r="R48" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" t="s">
-        <v>355</v>
-      </c>
-      <c r="D49">
-        <v>2016</v>
-      </c>
-      <c r="E49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49">
-        <v>39</v>
-      </c>
-      <c r="G49" t="s">
-        <v>140</v>
-      </c>
-      <c r="H49" t="s">
-        <v>143</v>
-      </c>
-      <c r="I49">
-        <v>33.281400219605175</v>
-      </c>
-      <c r="J49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K49">
-        <v>200</v>
-      </c>
-      <c r="L49" t="s">
-        <v>166</v>
-      </c>
-      <c r="M49" t="s">
-        <v>181</v>
-      </c>
-      <c r="N49" t="s">
-        <v>194</v>
-      </c>
-      <c r="O49" t="s">
-        <v>181</v>
-      </c>
-      <c r="P49" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>218</v>
-      </c>
-      <c r="R49" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" t="s">
-        <v>355</v>
-      </c>
-      <c r="D50">
-        <v>2016</v>
-      </c>
-      <c r="E50" t="s">
-        <v>91</v>
-      </c>
-      <c r="F50">
-        <v>32</v>
-      </c>
-      <c r="G50" t="s">
-        <v>140</v>
-      </c>
-      <c r="H50" t="s">
-        <v>143</v>
-      </c>
-      <c r="I50">
-        <v>29.180133920570579</v>
-      </c>
-      <c r="J50" t="s">
-        <v>149</v>
-      </c>
-      <c r="K50">
-        <v>170</v>
-      </c>
-      <c r="L50" t="s">
-        <v>157</v>
-      </c>
-      <c r="M50" t="s">
-        <v>195</v>
-      </c>
-      <c r="N50" t="s">
-        <v>183</v>
-      </c>
-      <c r="O50" t="s">
-        <v>181</v>
-      </c>
-      <c r="P50" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>218</v>
-      </c>
-      <c r="R50" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" t="s">
-        <v>355</v>
-      </c>
-      <c r="D51">
-        <v>2016</v>
-      </c>
-      <c r="E51" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51">
-        <v>48</v>
-      </c>
-      <c r="G51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H51" t="s">
-        <v>143</v>
-      </c>
-      <c r="I51">
-        <v>27.397228983520048</v>
-      </c>
-      <c r="J51" t="s">
-        <v>149</v>
-      </c>
-      <c r="K51">
-        <v>145</v>
-      </c>
-      <c r="L51" t="s">
-        <v>169</v>
-      </c>
-      <c r="M51" t="s">
-        <v>197</v>
-      </c>
-      <c r="N51" t="s">
-        <v>190</v>
-      </c>
-      <c r="O51" t="s">
-        <v>192</v>
-      </c>
-      <c r="P51" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>218</v>
-      </c>
-      <c r="R51" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" t="s">
-        <v>355</v>
-      </c>
-      <c r="D52">
-        <v>2016</v>
-      </c>
-      <c r="E52" t="s">
-        <v>107</v>
-      </c>
-      <c r="F52">
-        <v>54</v>
-      </c>
-      <c r="G52" t="s">
-        <v>140</v>
-      </c>
-      <c r="H52" t="s">
-        <v>143</v>
-      </c>
-      <c r="I52">
-        <v>35.278284232781481</v>
-      </c>
-      <c r="J52" t="s">
-        <v>151</v>
-      </c>
-      <c r="K52">
-        <v>212</v>
-      </c>
-      <c r="L52" t="s">
-        <v>158</v>
-      </c>
-      <c r="M52" t="s">
-        <v>181</v>
-      </c>
-      <c r="N52" t="s">
-        <v>191</v>
-      </c>
-      <c r="O52" t="s">
-        <v>181</v>
-      </c>
-      <c r="P52" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>257</v>
-      </c>
-      <c r="R52" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" t="s">
-        <v>355</v>
-      </c>
-      <c r="D53">
-        <v>2016</v>
-      </c>
-      <c r="E53" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53">
-        <v>40</v>
-      </c>
-      <c r="G53" t="s">
-        <v>140</v>
-      </c>
-      <c r="H53" t="s">
-        <v>143</v>
-      </c>
-      <c r="I53">
-        <v>20.517290027340135</v>
-      </c>
-      <c r="J53" t="s">
-        <v>148</v>
-      </c>
-      <c r="K53">
-        <v>131</v>
-      </c>
-      <c r="L53" t="s">
-        <v>155</v>
-      </c>
-      <c r="M53" t="s">
-        <v>181</v>
-      </c>
-      <c r="N53" t="s">
-        <v>212</v>
-      </c>
-      <c r="O53" t="s">
-        <v>187</v>
-      </c>
-      <c r="P53" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>280</v>
-      </c>
-      <c r="R53" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" t="s">
-        <v>356</v>
-      </c>
-      <c r="D54">
-        <v>2016</v>
-      </c>
-      <c r="E54" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54">
-        <v>46</v>
-      </c>
-      <c r="G54" t="s">
-        <v>140</v>
-      </c>
-      <c r="H54" t="s">
-        <v>145</v>
-      </c>
-      <c r="I54">
-        <v>38.011979868034125</v>
-      </c>
-      <c r="J54" t="s">
-        <v>151</v>
-      </c>
-      <c r="K54">
-        <v>250</v>
-      </c>
-      <c r="L54" t="s">
-        <v>160</v>
-      </c>
-      <c r="M54" t="s">
-        <v>181</v>
-      </c>
-      <c r="N54" t="s">
-        <v>185</v>
-      </c>
-      <c r="O54" t="s">
-        <v>181</v>
-      </c>
-      <c r="P54" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>228</v>
-      </c>
-      <c r="R54" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" t="s">
-        <v>356</v>
-      </c>
-      <c r="D55">
-        <v>2016</v>
-      </c>
-      <c r="E55" t="s">
-        <v>80</v>
-      </c>
-      <c r="F55">
-        <v>49</v>
-      </c>
-      <c r="G55" t="s">
-        <v>140</v>
-      </c>
-      <c r="H55" t="s">
-        <v>145</v>
-      </c>
-      <c r="I55">
-        <v>41.710426721756768</v>
-      </c>
-      <c r="J55" t="s">
-        <v>151</v>
-      </c>
-      <c r="K55">
-        <v>243</v>
-      </c>
-      <c r="L55" t="s">
-        <v>157</v>
-      </c>
-      <c r="M55" t="s">
-        <v>181</v>
-      </c>
-      <c r="N55" t="s">
-        <v>181</v>
-      </c>
-      <c r="O55" t="s">
-        <v>181</v>
-      </c>
-      <c r="P55" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>230</v>
-      </c>
-      <c r="R55" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" t="s">
-        <v>356</v>
-      </c>
-      <c r="D56">
-        <v>2016</v>
-      </c>
-      <c r="E56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F56">
-        <v>47</v>
-      </c>
-      <c r="G56" t="s">
-        <v>140</v>
-      </c>
-      <c r="H56" t="s">
-        <v>145</v>
-      </c>
-      <c r="I56">
-        <v>28.696717536292212</v>
-      </c>
-      <c r="J56" t="s">
-        <v>149</v>
-      </c>
-      <c r="K56">
-        <v>200</v>
-      </c>
-      <c r="L56" t="s">
-        <v>154</v>
-      </c>
-      <c r="M56" t="s">
-        <v>181</v>
-      </c>
-      <c r="N56" t="s">
-        <v>181</v>
-      </c>
-      <c r="O56" t="s">
-        <v>181</v>
-      </c>
-      <c r="P56" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>234</v>
-      </c>
-      <c r="R56" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" t="s">
-        <v>356</v>
-      </c>
-      <c r="D57">
-        <v>2016</v>
-      </c>
-      <c r="E57" t="s">
-        <v>93</v>
-      </c>
-      <c r="F57">
-        <v>35</v>
-      </c>
-      <c r="G57" t="s">
-        <v>140</v>
-      </c>
-      <c r="H57" t="s">
-        <v>145</v>
-      </c>
-      <c r="I57">
-        <v>34.010924487457444</v>
-      </c>
-      <c r="J57" t="s">
-        <v>151</v>
-      </c>
-      <c r="K57">
-        <v>192</v>
-      </c>
-      <c r="L57" t="s">
-        <v>168</v>
-      </c>
-      <c r="M57" t="s">
-        <v>181</v>
-      </c>
-      <c r="N57" t="s">
-        <v>187</v>
-      </c>
-      <c r="O57" t="s">
-        <v>181</v>
-      </c>
-      <c r="P57" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>241</v>
-      </c>
-      <c r="R57" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" t="s">
-        <v>356</v>
-      </c>
-      <c r="D58">
-        <v>2016</v>
-      </c>
-      <c r="E58" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58">
-        <v>48</v>
-      </c>
-      <c r="G58" t="s">
-        <v>140</v>
-      </c>
-      <c r="H58" t="s">
-        <v>145</v>
-      </c>
-      <c r="I58">
-        <v>37.789281356579373</v>
-      </c>
-      <c r="J58" t="s">
-        <v>151</v>
-      </c>
-      <c r="K58">
-        <v>200</v>
-      </c>
-      <c r="L58" t="s">
-        <v>169</v>
-      </c>
-      <c r="M58" t="s">
-        <v>181</v>
-      </c>
-      <c r="N58" t="s">
-        <v>180</v>
-      </c>
-      <c r="O58" t="s">
-        <v>181</v>
-      </c>
-      <c r="P58" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>247</v>
-      </c>
-      <c r="R58" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" t="s">
-        <v>356</v>
-      </c>
-      <c r="D59">
-        <v>2016</v>
-      </c>
-      <c r="E59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F59">
-        <v>38</v>
-      </c>
-      <c r="G59" t="s">
-        <v>140</v>
-      </c>
-      <c r="H59" t="s">
-        <v>145</v>
-      </c>
-      <c r="I59">
-        <v>29.00848607397899</v>
-      </c>
-      <c r="J59" t="s">
-        <v>149</v>
-      </c>
-      <c r="K59">
-        <v>169</v>
-      </c>
-      <c r="L59" t="s">
-        <v>159</v>
-      </c>
-      <c r="M59" t="s">
-        <v>181</v>
-      </c>
-      <c r="N59" t="s">
-        <v>191</v>
-      </c>
-      <c r="O59" t="s">
-        <v>181</v>
-      </c>
-      <c r="P59" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>251</v>
-      </c>
-      <c r="R59" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" t="s">
-        <v>356</v>
-      </c>
-      <c r="D60">
-        <v>2016</v>
-      </c>
-      <c r="E60" t="s">
-        <v>105</v>
-      </c>
-      <c r="F60">
-        <v>37</v>
-      </c>
-      <c r="G60" t="s">
-        <v>140</v>
-      </c>
-      <c r="H60" t="s">
-        <v>145</v>
-      </c>
-      <c r="I60">
-        <v>45.34713762789525</v>
-      </c>
-      <c r="J60" t="s">
-        <v>151</v>
-      </c>
-      <c r="K60">
-        <v>240</v>
-      </c>
-      <c r="L60" t="s">
-        <v>169</v>
-      </c>
-      <c r="M60" t="s">
-        <v>181</v>
-      </c>
-      <c r="N60" t="s">
-        <v>202</v>
-      </c>
-      <c r="O60" t="s">
-        <v>181</v>
-      </c>
-      <c r="P60" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>253</v>
-      </c>
-      <c r="R60" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" t="s">
-        <v>356</v>
-      </c>
-      <c r="D61">
-        <v>2016</v>
-      </c>
-      <c r="E61" t="s">
-        <v>106</v>
-      </c>
-      <c r="F61">
-        <v>36</v>
-      </c>
-      <c r="G61" t="s">
-        <v>140</v>
-      </c>
-      <c r="H61" t="s">
-        <v>145</v>
-      </c>
-      <c r="I61">
-        <v>19.158037853489201</v>
-      </c>
-      <c r="J61" t="s">
-        <v>148</v>
-      </c>
-      <c r="K61">
-        <v>126</v>
-      </c>
-      <c r="L61" t="s">
-        <v>161</v>
-      </c>
-      <c r="M61" t="s">
-        <v>203</v>
-      </c>
-      <c r="N61" t="s">
-        <v>187</v>
-      </c>
-      <c r="O61" t="s">
-        <v>181</v>
-      </c>
-      <c r="P61" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>255</v>
-      </c>
-      <c r="R61" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" t="s">
-        <v>356</v>
-      </c>
-      <c r="D62">
-        <v>2016</v>
-      </c>
-      <c r="E62" t="s">
-        <v>108</v>
-      </c>
-      <c r="F62">
-        <v>36</v>
-      </c>
-      <c r="G62" t="s">
-        <v>140</v>
-      </c>
-      <c r="H62" t="s">
-        <v>145</v>
-      </c>
-      <c r="I62">
-        <v>33.08752613086034</v>
-      </c>
-      <c r="J62" t="s">
-        <v>151</v>
-      </c>
-      <c r="K62">
-        <v>205</v>
-      </c>
-      <c r="L62" t="s">
-        <v>156</v>
-      </c>
-      <c r="M62" t="s">
-        <v>181</v>
-      </c>
-      <c r="N62" t="s">
-        <v>185</v>
-      </c>
-      <c r="O62" t="s">
-        <v>181</v>
-      </c>
-      <c r="P62" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>259</v>
-      </c>
-      <c r="R62" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" t="s">
-        <v>356</v>
-      </c>
-      <c r="D63">
-        <v>2016</v>
-      </c>
-      <c r="E63" t="s">
-        <v>110</v>
-      </c>
-      <c r="F63">
-        <v>51</v>
-      </c>
-      <c r="G63" t="s">
-        <v>140</v>
-      </c>
-      <c r="H63" t="s">
-        <v>145</v>
-      </c>
-      <c r="I63">
-        <v>30.715915262538363</v>
-      </c>
-      <c r="J63" t="s">
-        <v>151</v>
-      </c>
-      <c r="K63">
-        <v>208</v>
-      </c>
-      <c r="L63" t="s">
-        <v>164</v>
-      </c>
-      <c r="M63" t="s">
-        <v>205</v>
-      </c>
-      <c r="N63" t="s">
-        <v>185</v>
-      </c>
-      <c r="O63" t="s">
-        <v>181</v>
-      </c>
-      <c r="P63" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>70</v>
-      </c>
-      <c r="R63" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" t="s">
-        <v>356</v>
-      </c>
-      <c r="D64">
-        <v>2016</v>
-      </c>
-      <c r="E64" t="s">
-        <v>113</v>
-      </c>
-      <c r="F64">
-        <v>46</v>
-      </c>
-      <c r="G64" t="s">
-        <v>140</v>
-      </c>
-      <c r="H64" t="s">
-        <v>145</v>
-      </c>
-      <c r="I64">
-        <v>36.315577460700382</v>
-      </c>
-      <c r="J64" t="s">
-        <v>151</v>
-      </c>
-      <c r="K64">
-        <v>225</v>
-      </c>
-      <c r="L64" t="s">
-        <v>156</v>
-      </c>
-      <c r="M64" t="s">
-        <v>181</v>
-      </c>
-      <c r="N64" t="s">
-        <v>181</v>
-      </c>
-      <c r="O64" t="s">
-        <v>181</v>
-      </c>
-      <c r="P64" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>268</v>
-      </c>
-      <c r="R64" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" t="s">
-        <v>356</v>
-      </c>
-      <c r="D65">
-        <v>2016</v>
-      </c>
-      <c r="E65" t="s">
-        <v>114</v>
-      </c>
-      <c r="F65">
-        <v>34</v>
-      </c>
-      <c r="G65" t="s">
-        <v>140</v>
-      </c>
-      <c r="H65" t="s">
-        <v>145</v>
-      </c>
-      <c r="I65">
-        <v>30.98929276646432</v>
-      </c>
-      <c r="J65" t="s">
-        <v>151</v>
-      </c>
-      <c r="K65">
-        <v>192</v>
-      </c>
-      <c r="L65" t="s">
-        <v>156</v>
-      </c>
-      <c r="M65" t="s">
-        <v>181</v>
-      </c>
-      <c r="N65" t="s">
-        <v>187</v>
-      </c>
-      <c r="O65" t="s">
-        <v>187</v>
-      </c>
-      <c r="P65" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>270</v>
-      </c>
-      <c r="R65" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" t="s">
-        <v>356</v>
-      </c>
-      <c r="D66">
-        <v>2016</v>
-      </c>
-      <c r="E66" t="s">
-        <v>115</v>
-      </c>
-      <c r="F66">
-        <v>39</v>
-      </c>
-      <c r="G66" t="s">
-        <v>140</v>
-      </c>
-      <c r="H66" t="s">
-        <v>145</v>
-      </c>
-      <c r="I66">
-        <v>23.403372141340242</v>
-      </c>
-      <c r="J66" t="s">
-        <v>148</v>
-      </c>
-      <c r="K66">
-        <v>145</v>
-      </c>
-      <c r="L66" t="s">
-        <v>156</v>
-      </c>
-      <c r="M66" t="s">
-        <v>181</v>
-      </c>
-      <c r="N66" t="s">
-        <v>187</v>
-      </c>
-      <c r="O66" t="s">
-        <v>181</v>
-      </c>
-      <c r="P66" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>272</v>
-      </c>
-      <c r="R66" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" t="s">
-        <v>356</v>
-      </c>
-      <c r="D67">
-        <v>2016</v>
-      </c>
-      <c r="E67" t="s">
-        <v>118</v>
-      </c>
-      <c r="F67">
-        <v>37</v>
-      </c>
-      <c r="G67" t="s">
-        <v>140</v>
-      </c>
-      <c r="H67" t="s">
-        <v>145</v>
-      </c>
-      <c r="I67">
-        <v>28.348316755332551</v>
-      </c>
-      <c r="J67" t="s">
-        <v>149</v>
-      </c>
-      <c r="K67">
-        <v>181</v>
-      </c>
-      <c r="L67" t="s">
-        <v>155</v>
-      </c>
-      <c r="M67" t="s">
-        <v>181</v>
-      </c>
-      <c r="N67" t="s">
-        <v>181</v>
-      </c>
-      <c r="O67" t="s">
-        <v>181</v>
-      </c>
-      <c r="P67" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>276</v>
-      </c>
-      <c r="R67" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" t="s">
-        <v>356</v>
-      </c>
-      <c r="D68">
-        <v>2016</v>
-      </c>
-      <c r="E68" t="s">
-        <v>125</v>
-      </c>
-      <c r="F68">
-        <v>47</v>
-      </c>
-      <c r="G68" t="s">
-        <v>140</v>
-      </c>
-      <c r="H68" t="s">
-        <v>145</v>
-      </c>
-      <c r="I68">
-        <v>40.140650740644041</v>
-      </c>
-      <c r="J68" t="s">
-        <v>151</v>
-      </c>
-      <c r="K68">
-        <v>264</v>
-      </c>
-      <c r="L68" t="s">
-        <v>160</v>
-      </c>
-      <c r="M68" t="s">
-        <v>181</v>
-      </c>
-      <c r="N68" t="s">
-        <v>185</v>
-      </c>
-      <c r="O68" t="s">
-        <v>181</v>
-      </c>
-      <c r="P68" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>284</v>
-      </c>
-      <c r="R68" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" t="s">
-        <v>356</v>
-      </c>
-      <c r="D69">
-        <v>2016</v>
-      </c>
-      <c r="E69" t="s">
-        <v>133</v>
-      </c>
-      <c r="F69">
-        <v>30</v>
-      </c>
-      <c r="G69" t="s">
-        <v>140</v>
-      </c>
-      <c r="H69" t="s">
-        <v>145</v>
-      </c>
-      <c r="I69">
-        <v>31.010865842849977</v>
-      </c>
-      <c r="J69" t="s">
-        <v>151</v>
-      </c>
-      <c r="K69">
-        <v>198</v>
-      </c>
-      <c r="L69" t="s">
-        <v>163</v>
-      </c>
-      <c r="M69" t="s">
-        <v>214</v>
-      </c>
-      <c r="N69" t="s">
-        <v>180</v>
-      </c>
-      <c r="O69" t="s">
-        <v>181</v>
-      </c>
-      <c r="P69" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>297</v>
-      </c>
-      <c r="R69" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" t="s">
-        <v>356</v>
-      </c>
-      <c r="D70">
-        <v>2016</v>
-      </c>
-      <c r="E70" t="s">
-        <v>134</v>
-      </c>
-      <c r="F70">
-        <v>62</v>
-      </c>
-      <c r="G70" t="s">
-        <v>140</v>
-      </c>
-      <c r="H70" t="s">
-        <v>145</v>
-      </c>
-      <c r="I70">
-        <v>33.104993214018684</v>
-      </c>
-      <c r="J70" t="s">
-        <v>151</v>
-      </c>
-      <c r="K70">
-        <v>181</v>
-      </c>
-      <c r="L70" t="s">
-        <v>173</v>
-      </c>
-      <c r="M70" t="s">
-        <v>215</v>
-      </c>
-      <c r="N70" t="s">
-        <v>190</v>
-      </c>
-      <c r="O70" t="s">
-        <v>181</v>
-      </c>
-      <c r="P70" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>299</v>
-      </c>
-      <c r="R70" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" t="s">
-        <v>356</v>
-      </c>
-      <c r="D71">
-        <v>2016</v>
-      </c>
-      <c r="E71" t="s">
-        <v>135</v>
-      </c>
-      <c r="F71">
-        <v>53</v>
-      </c>
-      <c r="G71" t="s">
-        <v>140</v>
-      </c>
-      <c r="H71" t="s">
-        <v>145</v>
-      </c>
-      <c r="I71">
-        <v>27.824769263400984</v>
-      </c>
-      <c r="J71" t="s">
-        <v>149</v>
-      </c>
-      <c r="K71">
-        <v>183</v>
-      </c>
-      <c r="L71" t="s">
-        <v>160</v>
-      </c>
-      <c r="M71" t="s">
-        <v>181</v>
-      </c>
-      <c r="N71" t="s">
-        <v>185</v>
-      </c>
-      <c r="O71" t="s">
-        <v>181</v>
-      </c>
-      <c r="P71" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>301</v>
-      </c>
-      <c r="R71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" t="s">
-        <v>356</v>
-      </c>
-      <c r="D72">
-        <v>2016</v>
-      </c>
-      <c r="E72" t="s">
-        <v>76</v>
-      </c>
-      <c r="F72">
-        <v>39</v>
-      </c>
-      <c r="G72" t="s">
-        <v>140</v>
-      </c>
-      <c r="H72" t="s">
-        <v>144</v>
-      </c>
-      <c r="I72">
-        <v>32.61577221521307</v>
-      </c>
-      <c r="J72" t="s">
-        <v>151</v>
-      </c>
-      <c r="K72">
-        <v>196</v>
-      </c>
-      <c r="L72" t="s">
-        <v>158</v>
-      </c>
-      <c r="M72" t="s">
-        <v>181</v>
-      </c>
-      <c r="N72" t="s">
-        <v>181</v>
-      </c>
-      <c r="O72" t="s">
-        <v>181</v>
-      </c>
-      <c r="P72" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>224</v>
-      </c>
-      <c r="R72" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" t="s">
-        <v>356</v>
-      </c>
-      <c r="D73">
-        <v>2016</v>
-      </c>
-      <c r="E73" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73">
-        <v>31</v>
-      </c>
-      <c r="G73" t="s">
-        <v>140</v>
-      </c>
-      <c r="H73" t="s">
-        <v>144</v>
-      </c>
-      <c r="I73">
-        <v>19.852515678516205</v>
-      </c>
-      <c r="J73" t="s">
-        <v>148</v>
-      </c>
-      <c r="K73">
-        <v>123</v>
-      </c>
-      <c r="L73" t="s">
-        <v>156</v>
-      </c>
-      <c r="M73" t="s">
-        <v>181</v>
-      </c>
-      <c r="N73" t="s">
-        <v>181</v>
-      </c>
-      <c r="O73" t="s">
-        <v>181</v>
-      </c>
-      <c r="P73" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>226</v>
-      </c>
-      <c r="R73" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>50</v>
-      </c>
-      <c r="B74" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" t="s">
-        <v>356</v>
-      </c>
-      <c r="D74">
-        <v>2016</v>
-      </c>
-      <c r="E74" t="s">
-        <v>121</v>
-      </c>
-      <c r="F74">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>140</v>
-      </c>
-      <c r="H74" t="s">
-        <v>144</v>
-      </c>
-      <c r="I74">
-        <v>20.336723377992211</v>
-      </c>
-      <c r="J74" t="s">
-        <v>148</v>
-      </c>
-      <c r="K74">
-        <v>126</v>
-      </c>
-      <c r="L74" t="s">
-        <v>156</v>
-      </c>
-      <c r="M74" t="s">
-        <v>181</v>
-      </c>
-      <c r="N74" t="s">
-        <v>185</v>
-      </c>
-      <c r="O74" t="s">
-        <v>181</v>
-      </c>
-      <c r="P74" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>281</v>
-      </c>
-      <c r="R74" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>56</v>
-      </c>
-      <c r="B75" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" t="s">
-        <v>356</v>
-      </c>
-      <c r="D75">
-        <v>2016</v>
-      </c>
-      <c r="E75" t="s">
-        <v>127</v>
-      </c>
-      <c r="F75">
-        <v>46</v>
-      </c>
-      <c r="G75" t="s">
-        <v>140</v>
-      </c>
-      <c r="H75" t="s">
-        <v>144</v>
-      </c>
-      <c r="I75">
-        <v>26.054575057009917</v>
-      </c>
-      <c r="J75" t="s">
-        <v>149</v>
-      </c>
-      <c r="K75">
-        <v>129</v>
-      </c>
-      <c r="L75" t="s">
-        <v>172</v>
-      </c>
-      <c r="M75" t="s">
-        <v>181</v>
-      </c>
-      <c r="N75" t="s">
-        <v>190</v>
-      </c>
-      <c r="O75" t="s">
-        <v>192</v>
-      </c>
-      <c r="P75" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>288</v>
-      </c>
-      <c r="R75" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>65</v>
-      </c>
-      <c r="B76" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" t="s">
-        <v>356</v>
-      </c>
-      <c r="D76">
-        <v>2016</v>
-      </c>
-      <c r="E76" t="s">
-        <v>136</v>
-      </c>
-      <c r="F76">
-        <v>45</v>
-      </c>
-      <c r="G76" t="s">
-        <v>140</v>
-      </c>
-      <c r="H76" t="s">
-        <v>144</v>
-      </c>
-      <c r="I76">
-        <v>25.606072099240976</v>
-      </c>
-      <c r="J76" t="s">
-        <v>149</v>
-      </c>
-      <c r="K76">
-        <v>140</v>
-      </c>
-      <c r="L76" t="s">
-        <v>173</v>
-      </c>
-      <c r="M76" t="s">
-        <v>181</v>
-      </c>
-      <c r="N76" t="s">
-        <v>187</v>
-      </c>
-      <c r="O76" t="s">
-        <v>188</v>
-      </c>
-      <c r="P76" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>303</v>
-      </c>
-      <c r="R76" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" t="s">
-        <v>356</v>
-      </c>
-      <c r="D77">
-        <v>2016</v>
-      </c>
-      <c r="E77" t="s">
-        <v>75</v>
-      </c>
-      <c r="F77">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>140</v>
-      </c>
-      <c r="H77" t="s">
-        <v>142</v>
-      </c>
-      <c r="I77">
-        <v>18.02302389211712</v>
-      </c>
-      <c r="J77" t="s">
-        <v>150</v>
-      </c>
-      <c r="K77">
-        <v>105</v>
-      </c>
-      <c r="L77" t="s">
-        <v>157</v>
-      </c>
-      <c r="M77" t="s">
-        <v>181</v>
-      </c>
-      <c r="N77" t="s">
-        <v>180</v>
-      </c>
-      <c r="O77" t="s">
-        <v>181</v>
-      </c>
-      <c r="P77" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>222</v>
-      </c>
-      <c r="R77" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" t="s">
-        <v>356</v>
-      </c>
-      <c r="D78">
-        <v>2016</v>
-      </c>
-      <c r="E78" t="s">
-        <v>82</v>
-      </c>
-      <c r="F78">
-        <v>25</v>
-      </c>
-      <c r="G78" t="s">
-        <v>140</v>
-      </c>
-      <c r="H78" t="s">
-        <v>142</v>
-      </c>
-      <c r="I78">
-        <v>27.368625504984571</v>
-      </c>
-      <c r="J78" t="s">
-        <v>149</v>
-      </c>
-      <c r="K78">
-        <v>180</v>
-      </c>
-      <c r="L78" t="s">
-        <v>161</v>
-      </c>
-      <c r="M78" t="s">
-        <v>181</v>
-      </c>
-      <c r="N78" t="s">
-        <v>187</v>
-      </c>
-      <c r="O78" t="s">
-        <v>188</v>
-      </c>
-      <c r="P78" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>232</v>
-      </c>
-      <c r="R78" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" t="s">
-        <v>356</v>
-      </c>
-      <c r="D79">
-        <v>2016</v>
-      </c>
-      <c r="E79" t="s">
-        <v>85</v>
-      </c>
-      <c r="F79">
-        <v>28</v>
-      </c>
-      <c r="G79" t="s">
-        <v>140</v>
-      </c>
-      <c r="H79" t="s">
-        <v>142</v>
-      </c>
-      <c r="I79">
-        <v>39.438459260232129</v>
-      </c>
-      <c r="J79" t="s">
-        <v>151</v>
-      </c>
-      <c r="K79">
-        <v>237</v>
-      </c>
-      <c r="L79" t="s">
-        <v>158</v>
-      </c>
-      <c r="M79" t="s">
-        <v>189</v>
-      </c>
-      <c r="N79" t="s">
-        <v>190</v>
-      </c>
-      <c r="O79" t="s">
-        <v>181</v>
-      </c>
-      <c r="P79" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>236</v>
-      </c>
-      <c r="R79" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" t="s">
-        <v>356</v>
-      </c>
-      <c r="D80">
-        <v>2016</v>
-      </c>
-      <c r="E80" t="s">
-        <v>89</v>
-      </c>
-      <c r="F80">
-        <v>58</v>
-      </c>
-      <c r="G80" t="s">
-        <v>140</v>
-      </c>
-      <c r="H80" t="s">
-        <v>142</v>
-      </c>
-      <c r="I80">
-        <v>26.499349361523564</v>
-      </c>
-      <c r="J80" t="s">
-        <v>149</v>
-      </c>
-      <c r="K80">
-        <v>190</v>
-      </c>
-      <c r="L80" t="s">
-        <v>165</v>
-      </c>
-      <c r="M80" t="s">
-        <v>193</v>
-      </c>
-      <c r="N80" t="s">
-        <v>180</v>
-      </c>
-      <c r="O80" t="s">
-        <v>180</v>
-      </c>
-      <c r="P80" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>238</v>
-      </c>
-      <c r="R80" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" t="s">
-        <v>356</v>
-      </c>
-      <c r="D81">
-        <v>2016</v>
-      </c>
-      <c r="E81" t="s">
-        <v>95</v>
-      </c>
-      <c r="F81">
-        <v>31</v>
-      </c>
-      <c r="G81" t="s">
-        <v>140</v>
-      </c>
-      <c r="H81" t="s">
-        <v>142</v>
-      </c>
-      <c r="I81">
-        <v>26.631423471180273</v>
-      </c>
-      <c r="J81" t="s">
-        <v>149</v>
-      </c>
-      <c r="K81">
-        <v>165</v>
-      </c>
-      <c r="L81" t="s">
-        <v>156</v>
-      </c>
-      <c r="M81" t="s">
-        <v>198</v>
-      </c>
-      <c r="N81" t="s">
-        <v>190</v>
-      </c>
-      <c r="O81" t="s">
-        <v>188</v>
-      </c>
-      <c r="P81" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>242</v>
-      </c>
-      <c r="R81" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>38</v>
-      </c>
-      <c r="B82" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" t="s">
-        <v>356</v>
-      </c>
-      <c r="D82">
-        <v>2016</v>
-      </c>
-      <c r="E82" t="s">
-        <v>109</v>
-      </c>
-      <c r="F82">
-        <v>50</v>
-      </c>
-      <c r="G82" t="s">
-        <v>140</v>
-      </c>
-      <c r="H82" t="s">
-        <v>142</v>
-      </c>
-      <c r="I82">
-        <v>19.197447039086477</v>
-      </c>
-      <c r="J82" t="s">
-        <v>148</v>
-      </c>
-      <c r="K82">
-        <v>130</v>
-      </c>
-      <c r="L82" t="s">
-        <v>164</v>
-      </c>
-      <c r="M82" t="s">
-        <v>204</v>
-      </c>
-      <c r="N82" t="s">
-        <v>180</v>
-      </c>
-      <c r="O82" t="s">
-        <v>188</v>
-      </c>
-      <c r="P82" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>261</v>
-      </c>
-      <c r="R82" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>40</v>
-      </c>
-      <c r="B83" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" t="s">
-        <v>356</v>
-      </c>
-      <c r="D83">
-        <v>2016</v>
-      </c>
-      <c r="E83" t="s">
-        <v>111</v>
-      </c>
-      <c r="F83">
-        <v>37</v>
-      </c>
-      <c r="G83" t="s">
-        <v>140</v>
-      </c>
-      <c r="H83" t="s">
-        <v>142</v>
-      </c>
-      <c r="I83">
-        <v>29.859474801020312</v>
-      </c>
-      <c r="J83" t="s">
-        <v>149</v>
-      </c>
-      <c r="K83">
-        <v>185</v>
-      </c>
-      <c r="L83" t="s">
-        <v>156</v>
-      </c>
-      <c r="M83" t="s">
-        <v>206</v>
-      </c>
-      <c r="N83" t="s">
-        <v>185</v>
-      </c>
-      <c r="O83" t="s">
-        <v>188</v>
-      </c>
-      <c r="P83" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>264</v>
-      </c>
-      <c r="R83" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>41</v>
-      </c>
-      <c r="B84" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" t="s">
-        <v>356</v>
-      </c>
-      <c r="D84">
-        <v>2016</v>
-      </c>
-      <c r="E84" t="s">
-        <v>112</v>
-      </c>
-      <c r="F84">
-        <v>27</v>
-      </c>
-      <c r="G84" t="s">
-        <v>140</v>
-      </c>
-      <c r="H84" t="s">
-        <v>142</v>
-      </c>
-      <c r="I84">
-        <v>21.728836780033141</v>
-      </c>
-      <c r="J84" t="s">
-        <v>148</v>
-      </c>
-      <c r="K84">
-        <v>115</v>
-      </c>
-      <c r="L84" t="s">
-        <v>169</v>
-      </c>
-      <c r="M84" t="s">
-        <v>181</v>
-      </c>
-      <c r="N84" t="s">
-        <v>180</v>
-      </c>
-      <c r="O84" t="s">
-        <v>188</v>
-      </c>
-      <c r="P84" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>266</v>
-      </c>
-      <c r="R84" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>52</v>
-      </c>
-      <c r="B85" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" t="s">
-        <v>356</v>
-      </c>
-      <c r="D85">
-        <v>2016</v>
-      </c>
-      <c r="E85" t="s">
-        <v>123</v>
-      </c>
-      <c r="F85">
-        <v>50</v>
-      </c>
-      <c r="G85" t="s">
-        <v>140</v>
-      </c>
-      <c r="H85" t="s">
-        <v>142</v>
-      </c>
-      <c r="I85">
-        <v>22.396736442058316</v>
-      </c>
-      <c r="J85" t="s">
-        <v>148</v>
-      </c>
-      <c r="K85">
-        <v>143</v>
-      </c>
-      <c r="L85" t="s">
-        <v>155</v>
-      </c>
-      <c r="M85" t="s">
-        <v>181</v>
-      </c>
-      <c r="N85" t="s">
-        <v>180</v>
-      </c>
-      <c r="O85" t="s">
-        <v>180</v>
-      </c>
-      <c r="P85" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>218</v>
-      </c>
-      <c r="R85" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>57</v>
-      </c>
-      <c r="B86" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" t="s">
-        <v>356</v>
-      </c>
-      <c r="D86">
-        <v>2016</v>
-      </c>
-      <c r="E86" t="s">
-        <v>128</v>
-      </c>
-      <c r="F86">
-        <v>52</v>
-      </c>
-      <c r="G86" t="s">
-        <v>140</v>
-      </c>
-      <c r="H86" t="s">
-        <v>142</v>
-      </c>
-      <c r="I86">
-        <v>26.605416221696704</v>
-      </c>
-      <c r="J86" t="s">
-        <v>149</v>
-      </c>
-      <c r="K86">
-        <v>155</v>
-      </c>
-      <c r="L86" t="s">
-        <v>159</v>
-      </c>
-      <c r="M86" t="s">
-        <v>181</v>
-      </c>
-      <c r="N86" t="s">
-        <v>180</v>
-      </c>
-      <c r="O86" t="s">
-        <v>181</v>
-      </c>
-      <c r="P86" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>290</v>
-      </c>
-      <c r="R86" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C87" t="s">
-        <v>356</v>
-      </c>
-      <c r="D87">
-        <v>2016</v>
-      </c>
-      <c r="E87" t="s">
-        <v>129</v>
-      </c>
-      <c r="F87">
-        <v>34</v>
-      </c>
-      <c r="G87" t="s">
-        <v>140</v>
-      </c>
-      <c r="H87" t="s">
-        <v>142</v>
-      </c>
-      <c r="I87">
-        <v>22.130962314343986</v>
-      </c>
-      <c r="J87" t="s">
-        <v>148</v>
-      </c>
-      <c r="K87">
-        <v>121</v>
-      </c>
-      <c r="L87" t="s">
-        <v>173</v>
-      </c>
-      <c r="M87" t="s">
-        <v>213</v>
-      </c>
-      <c r="N87" t="s">
-        <v>183</v>
-      </c>
-      <c r="O87" t="s">
-        <v>181</v>
-      </c>
-      <c r="P87" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>70</v>
-      </c>
-      <c r="R87" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" t="s">
-        <v>68</v>
-      </c>
-      <c r="C88" t="s">
-        <v>356</v>
-      </c>
-      <c r="D88">
-        <v>2016</v>
-      </c>
-      <c r="E88" t="s">
-        <v>117</v>
-      </c>
-      <c r="F88">
-        <v>33</v>
-      </c>
-      <c r="G88" t="s">
-        <v>140</v>
-      </c>
-      <c r="H88" t="s">
-        <v>142</v>
-      </c>
-      <c r="I88">
-        <v>45.614375841640957</v>
-      </c>
-      <c r="J88" t="s">
-        <v>151</v>
-      </c>
-      <c r="K88">
-        <v>300</v>
-      </c>
-      <c r="L88" t="s">
-        <v>161</v>
-      </c>
-      <c r="M88" t="s">
-        <v>210</v>
-      </c>
-      <c r="N88" t="s">
-        <v>180</v>
-      </c>
-      <c r="O88" t="s">
-        <v>188</v>
-      </c>
-      <c r="P88" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>274</v>
-      </c>
-      <c r="R88" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" t="s">
-        <v>68</v>
-      </c>
-      <c r="C89" t="s">
-        <v>356</v>
-      </c>
-      <c r="D89">
-        <v>2016</v>
-      </c>
-      <c r="E89" t="s">
-        <v>73</v>
-      </c>
-      <c r="F89">
-        <v>52</v>
-      </c>
-      <c r="G89" t="s">
-        <v>140</v>
-      </c>
-      <c r="H89" t="s">
-        <v>143</v>
-      </c>
-      <c r="I89">
-        <v>25.999008736934829</v>
-      </c>
-      <c r="J89" t="s">
-        <v>149</v>
-      </c>
-      <c r="K89">
-        <v>166</v>
-      </c>
-      <c r="L89" t="s">
-        <v>155</v>
-      </c>
-      <c r="M89" t="s">
-        <v>182</v>
-      </c>
-      <c r="N89" t="s">
-        <v>180</v>
-      </c>
-      <c r="O89" t="s">
-        <v>181</v>
-      </c>
-      <c r="P89" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>219</v>
-      </c>
-      <c r="R89" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" t="s">
-        <v>68</v>
-      </c>
-      <c r="C90" t="s">
-        <v>356</v>
-      </c>
-      <c r="D90">
-        <v>2016</v>
-      </c>
-      <c r="E90" t="s">
-        <v>74</v>
-      </c>
-      <c r="F90">
-        <v>47</v>
-      </c>
-      <c r="G90" t="s">
-        <v>140</v>
-      </c>
-      <c r="H90" t="s">
-        <v>143</v>
-      </c>
-      <c r="I90">
-        <v>18.561295146580193</v>
-      </c>
-      <c r="J90" t="s">
-        <v>148</v>
-      </c>
-      <c r="K90">
-        <v>115</v>
-      </c>
-      <c r="L90" t="s">
-        <v>156</v>
-      </c>
-      <c r="M90" t="s">
-        <v>181</v>
-      </c>
-      <c r="N90" t="s">
-        <v>183</v>
-      </c>
-      <c r="O90" t="s">
-        <v>181</v>
-      </c>
-      <c r="P90" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>221</v>
-      </c>
-      <c r="R90" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>25</v>
-      </c>
-      <c r="B91" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91" t="s">
-        <v>356</v>
-      </c>
-      <c r="D91">
-        <v>2016</v>
-      </c>
-      <c r="E91" t="s">
-        <v>96</v>
-      </c>
-      <c r="F91">
-        <v>41</v>
-      </c>
-      <c r="G91" t="s">
-        <v>140</v>
-      </c>
-      <c r="H91" t="s">
-        <v>143</v>
-      </c>
-      <c r="I91">
-        <v>23.172459289864868</v>
-      </c>
-      <c r="J91" t="s">
-        <v>148</v>
-      </c>
-      <c r="K91">
-        <v>135</v>
-      </c>
-      <c r="L91" t="s">
-        <v>157</v>
-      </c>
-      <c r="M91" t="s">
-        <v>181</v>
-      </c>
-      <c r="N91" t="s">
-        <v>185</v>
-      </c>
-      <c r="O91" t="s">
-        <v>188</v>
-      </c>
-      <c r="P91" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>243</v>
-      </c>
-      <c r="R91" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>29</v>
-      </c>
-      <c r="B92" t="s">
-        <v>68</v>
-      </c>
-      <c r="C92" t="s">
-        <v>356</v>
-      </c>
-      <c r="D92">
-        <v>2016</v>
-      </c>
-      <c r="E92" t="s">
-        <v>100</v>
-      </c>
-      <c r="F92">
-        <v>27</v>
-      </c>
-      <c r="G92" t="s">
-        <v>140</v>
-      </c>
-      <c r="H92" t="s">
-        <v>143</v>
-      </c>
-      <c r="I92">
-        <v>29.180133920570579</v>
-      </c>
-      <c r="J92" t="s">
-        <v>149</v>
-      </c>
-      <c r="K92">
-        <v>170</v>
-      </c>
-      <c r="L92" t="s">
-        <v>159</v>
-      </c>
-      <c r="M92" t="s">
-        <v>181</v>
-      </c>
-      <c r="N92" t="s">
-        <v>180</v>
-      </c>
-      <c r="O92" t="s">
-        <v>181</v>
-      </c>
-      <c r="P92" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>245</v>
-      </c>
-      <c r="R92" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>31</v>
-      </c>
-      <c r="B93" t="s">
-        <v>68</v>
-      </c>
-      <c r="C93" t="s">
-        <v>356</v>
-      </c>
-      <c r="D93">
-        <v>2016</v>
-      </c>
-      <c r="E93" t="s">
-        <v>102</v>
-      </c>
-      <c r="F93">
-        <v>55</v>
-      </c>
-      <c r="G93" t="s">
-        <v>140</v>
-      </c>
-      <c r="H93" t="s">
-        <v>143</v>
-      </c>
-      <c r="I93">
-        <v>29.180133920570579</v>
-      </c>
-      <c r="J93" t="s">
-        <v>149</v>
-      </c>
-      <c r="K93">
-        <v>170</v>
-      </c>
-      <c r="L93" t="s">
-        <v>159</v>
-      </c>
-      <c r="M93" t="s">
-        <v>200</v>
-      </c>
-      <c r="N93" t="s">
-        <v>190</v>
-      </c>
-      <c r="O93" t="s">
-        <v>181</v>
-      </c>
-      <c r="P93" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>249</v>
-      </c>
-      <c r="R93" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>48</v>
-      </c>
-      <c r="B94" t="s">
-        <v>68</v>
-      </c>
-      <c r="C94" t="s">
-        <v>356</v>
-      </c>
-      <c r="D94">
-        <v>2016</v>
-      </c>
-      <c r="E94" t="s">
-        <v>119</v>
-      </c>
-      <c r="F94">
-        <v>45</v>
-      </c>
-      <c r="G94" t="s">
-        <v>140</v>
-      </c>
-      <c r="H94" t="s">
-        <v>143</v>
-      </c>
-      <c r="I94">
-        <v>30.214560447302713</v>
-      </c>
-      <c r="J94" t="s">
-        <v>151</v>
-      </c>
-      <c r="K94">
-        <v>130</v>
-      </c>
-      <c r="L94" t="s">
-        <v>171</v>
-      </c>
-      <c r="M94" t="s">
-        <v>211</v>
-      </c>
-      <c r="N94" t="s">
-        <v>185</v>
-      </c>
-      <c r="O94" t="s">
-        <v>181</v>
-      </c>
-      <c r="P94" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>278</v>
-      </c>
-      <c r="R94" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>55</v>
-      </c>
-      <c r="B95" t="s">
-        <v>68</v>
-      </c>
-      <c r="C95" t="s">
-        <v>356</v>
-      </c>
-      <c r="D95">
-        <v>2016</v>
-      </c>
-      <c r="E95" t="s">
-        <v>126</v>
-      </c>
-      <c r="F95">
-        <v>54</v>
-      </c>
-      <c r="G95" t="s">
-        <v>140</v>
-      </c>
-      <c r="H95" t="s">
-        <v>143</v>
-      </c>
-      <c r="I95">
-        <v>35.15347898195796</v>
-      </c>
-      <c r="J95" t="s">
-        <v>151</v>
-      </c>
-      <c r="K95">
-        <v>180</v>
-      </c>
-      <c r="L95" t="s">
-        <v>162</v>
-      </c>
-      <c r="M95" t="s">
-        <v>181</v>
-      </c>
-      <c r="N95" t="s">
-        <v>185</v>
-      </c>
-      <c r="O95" t="s">
-        <v>181</v>
-      </c>
-      <c r="P95" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>286</v>
-      </c>
-      <c r="R95" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>59</v>
-      </c>
-      <c r="B96" t="s">
-        <v>68</v>
-      </c>
-      <c r="C96" t="s">
-        <v>356</v>
-      </c>
-      <c r="D96">
-        <v>2016</v>
-      </c>
-      <c r="E96" t="s">
-        <v>130</v>
-      </c>
-      <c r="F96">
-        <v>37</v>
-      </c>
-      <c r="G96" t="s">
-        <v>140</v>
-      </c>
-      <c r="H96" t="s">
-        <v>143</v>
-      </c>
-      <c r="I96">
-        <v>33.836595273997006</v>
-      </c>
-      <c r="J96" t="s">
-        <v>151</v>
-      </c>
-      <c r="K96">
-        <v>185</v>
-      </c>
-      <c r="L96" t="s">
-        <v>173</v>
-      </c>
-      <c r="M96" t="s">
-        <v>181</v>
-      </c>
-      <c r="N96" t="s">
-        <v>187</v>
-      </c>
-      <c r="O96" t="s">
-        <v>181</v>
-      </c>
-      <c r="P96" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>293</v>
-      </c>
-      <c r="R96" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>60</v>
-      </c>
-      <c r="B97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C97" t="s">
-        <v>356</v>
-      </c>
-      <c r="D97">
-        <v>2016</v>
-      </c>
-      <c r="E97" t="s">
-        <v>131</v>
-      </c>
-      <c r="F97">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s">
-        <v>140</v>
-      </c>
-      <c r="H97" t="s">
-        <v>143</v>
-      </c>
-      <c r="I97">
-        <v>27.463655454654663</v>
-      </c>
-      <c r="J97" t="s">
-        <v>149</v>
-      </c>
-      <c r="K97">
-        <v>160</v>
-      </c>
-      <c r="L97" t="s">
-        <v>157</v>
-      </c>
-      <c r="M97" t="s">
-        <v>181</v>
-      </c>
-      <c r="N97" t="s">
-        <v>185</v>
-      </c>
-      <c r="O97" t="s">
-        <v>181</v>
-      </c>
-      <c r="P97" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>295</v>
-      </c>
-      <c r="R97" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>66</v>
-      </c>
-      <c r="B98" t="s">
-        <v>68</v>
-      </c>
-      <c r="C98" t="s">
-        <v>356</v>
-      </c>
-      <c r="D98">
-        <v>2016</v>
-      </c>
-      <c r="E98" t="s">
-        <v>137</v>
-      </c>
-      <c r="F98">
-        <v>39</v>
-      </c>
-      <c r="G98" t="s">
-        <v>140</v>
-      </c>
-      <c r="H98" t="s">
-        <v>143</v>
-      </c>
-      <c r="I98">
-        <v>24.365990472686679</v>
-      </c>
-      <c r="J98" t="s">
-        <v>148</v>
-      </c>
-      <c r="K98">
-        <v>165</v>
-      </c>
-      <c r="L98" t="s">
-        <v>164</v>
-      </c>
-      <c r="M98" t="s">
-        <v>181</v>
-      </c>
-      <c r="N98" t="s">
-        <v>181</v>
-      </c>
-      <c r="O98" t="s">
-        <v>181</v>
-      </c>
-      <c r="P98" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>305</v>
-      </c>
-      <c r="R98" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:R98">
-    <sortCondition ref="D2:D98"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1">
-        <v>2016</v>
-      </c>
-      <c r="C1">
-        <v>2014</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2">
-        <f>COUNTIF(main!$H$33:$H$98,"African American")</f>
-        <v>26</v>
-      </c>
-      <c r="C2">
-        <f>COUNTIF(main!$H$2:$H$32,"African American")</f>
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3">
-        <f>COUNTIF(main!$H$33:$H$98,"Asian/Pacific Islander")</f>
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <f>COUNTIF(main!$H$2:$H$32,"Asian/Pacific Islander")</f>
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4">
-        <f>COUNTIF(main!$H$33:$H$98,"Caucasian")</f>
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <f>COUNTIF(main!$H$2:$H$32,"Caucasian")</f>
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5">
-        <f>COUNTIF(main!$H$33:$H$98,"Hispanic/Latino")</f>
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <f>COUNTIF(main!$H$2:$H$32,"Hispanic/Latino")</f>
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>339</v>
-      </c>
-      <c r="B6">
-        <f>COUNTIF(main!$H$33:$H$98,"Multi-racial")</f>
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f>COUNTIF(main!$H$2:$H$32,"Multi-racial")</f>
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>339</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B7">
-        <f>COUNTIF(main!$H$33:$H$98,"Not Recorded")</f>
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f>COUNTIF(main!$H$2:$H$32,"Not Recorded")</f>
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="5" t="s">
-        <v>351</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>351</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>351</v>
+        <v>13</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>351</v>
+        <v>13</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>351</v>
+        <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -16378,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>20</v>
       </c>
@@ -16410,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>30</v>
       </c>
@@ -16443,7 +9611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>40</v>
       </c>
@@ -16476,7 +9644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>50</v>
       </c>
@@ -16509,7 +9677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>60</v>
       </c>
@@ -16542,7 +9710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>70</v>
       </c>
@@ -16575,7 +9743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>80</v>
       </c>
@@ -16608,7 +9776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>90</v>
       </c>
@@ -16641,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -16674,42 +9842,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="17" thickBot="1">
       <c r="A12" s="4" t="s">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="L12" s="4">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="6" t="s">
-        <v>354</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6"/>
       <c r="D14" s="6">
@@ -16721,11 +9889,11 @@
       </c>
       <c r="H14" s="6"/>
       <c r="K14" s="6" t="s">
-        <v>357</v>
+        <v>19</v>
       </c>
       <c r="L14" s="6"/>
       <c r="N14" s="6" t="s">
-        <v>356</v>
+        <v>18</v>
       </c>
       <c r="O14" s="6"/>
     </row>
@@ -16745,17 +9913,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -16763,9 +9931,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>13</v>
@@ -16774,9 +9942,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -16785,9 +9953,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <f>SUM(B2:B3)</f>
@@ -16796,6 +9964,52 @@
       <c r="C4">
         <f>SUM(C2:C3)</f>
         <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -16805,75 +10019,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2">
-        <v>33</v>
-      </c>
-      <c r="C2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>356</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -16882,9 +10050,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>17</v>
@@ -16893,9 +10061,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -16904,9 +10072,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -16915,9 +10083,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
